--- a/deployment/Omaha_Cal_Info_RS03AXPD.xlsx
+++ b/deployment/Omaha_Cal_Info_RS03AXPD.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="9260" yWindow="260" windowWidth="25600" windowHeight="14440" tabRatio="500" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Moorings" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Asset_Cal_Info" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="IntegrationEvents" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Verification" sheetId="4" r:id="rId6"/>
+    <sheet name="Moorings" sheetId="1" r:id="rId1"/>
+    <sheet name="Asset_Cal_Info" sheetId="2" r:id="rId2"/>
+    <sheet name="IntegrationEvents" sheetId="3" r:id="rId3"/>
+    <sheet name="Verification" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -19,16 +27,30 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2">
+    <comment ref="A1" authorId="0">
       <text>
-        <t xml:space="preserve">RSN equipment list 2014/15 has 00003, old deployment was N00361
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>value seems to indicate a second deployment of these instruments
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A1">
+    <comment ref="A2" authorId="0">
       <text>
-        <t xml:space="preserve">value seems to indicate a second deployment of these instruments
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>RSN equipment list 2014/15 has 00003, old deployment was N00361
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -41,64 +63,134 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A15">
+    <comment ref="E3" authorId="0">
       <text>
-        <t xml:space="preserve">changed to match the equipment list since we don't have data from this instrument in the system
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>equipment list says -00005
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F3">
+    <comment ref="F3" authorId="0">
       <text>
-        <t xml:space="preserve">equipment list shows 52-0145
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>equipment list shows 52-0145
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F6">
+    <comment ref="E6" authorId="0">
       <text>
-        <t xml:space="preserve">equipment list shows 1214
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>equipment list says -00005
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F24">
+    <comment ref="F6" authorId="0">
       <text>
-        <t xml:space="preserve">equipment list shows 458
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>equipment list shows 1214
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F12">
+    <comment ref="E12" authorId="0">
       <text>
-        <t xml:space="preserve">equipment list shows 3716
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>equipment list says -00005
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F15">
+    <comment ref="F12" authorId="0">
       <text>
-        <t xml:space="preserve">equipment list shows 3638
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>equipment list shows 3716
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E12">
+    <comment ref="A15" authorId="0">
       <text>
-        <t xml:space="preserve">equipment list says -00005
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>changed to match the equipment list since we don't have data from this instrument in the system
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E15">
+    <comment ref="E15" authorId="0">
       <text>
-        <t xml:space="preserve">equipment list says -00005
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>equipment list says -00005
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E6">
+    <comment ref="F15" authorId="0">
       <text>
-        <t xml:space="preserve">equipment list says -00005
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>equipment list shows 3638
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E3">
+    <comment ref="F24" authorId="0">
       <text>
-        <t xml:space="preserve">equipment list says -00005
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>equipment list shows 458
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -111,10 +203,17 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C3">
+    <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">no data, no names, no plot
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>no data, no names, no plot
 	-Dan Mergens</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -377,43 +476,48 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="m&quot;/&quot;d&quot;/&quot;yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF999999"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -422,7 +526,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -467,6 +571,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -479,6 +584,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -493,6 +599,7 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -505,6 +612,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -515,224 +623,685 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3225800</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2058" name="Rectangle 10" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3073" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.63"/>
-    <col customWidth="1" min="2" max="2" width="26.13"/>
-    <col customWidth="1" min="3" max="3" width="15.63"/>
-    <col customWidth="1" min="4" max="4" width="12.0"/>
-    <col customWidth="1" min="5" max="5" width="8.13"/>
-    <col customWidth="1" min="6" max="6" width="8.63"/>
-    <col customWidth="1" min="7" max="7" width="8.5"/>
-    <col customWidth="1" min="8" max="8" width="11.25"/>
-    <col customWidth="1" min="9" max="9" width="13.75"/>
-    <col customWidth="1" min="10" max="10" width="6.5"/>
-    <col customWidth="1" min="11" max="11" width="8.88"/>
-    <col customWidth="1" min="12" max="12" width="20.25"/>
-    <col customWidth="1" min="13" max="14" width="12.13"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.5" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" customWidth="1"/>
+    <col min="13" max="14" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.0" customHeight="1">
+    <row r="1" spans="1:14" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,7 +1341,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:14" ht="13.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -783,10 +1352,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="7">
-        <v>41860.0</v>
+        <v>41860</v>
       </c>
       <c r="F2" s="8">
         <v>0.875</v>
@@ -799,7 +1368,7 @@
         <v>16</v>
       </c>
       <c r="J2" s="4">
-        <v>2612.0</v>
+        <v>2612</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>17</v>
@@ -807,16 +1376,16 @@
       <c r="L2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="10" t="str">
-        <f t="shared" ref="M2:M8" si="1">((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
-        <v>45.82972</v>
-      </c>
-      <c r="N2" s="10" t="str">
-        <f t="shared" ref="N2:N8" si="2">((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
+      <c r="M2" s="10">
+        <f t="shared" ref="M2:M8" si="0">((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
+        <v>45.829720000000002</v>
+      </c>
+      <c r="N2" s="10">
+        <f t="shared" ref="N2:N8" si="1">((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
         <v>-129.75904</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
+    <row r="3" spans="1:14" ht="13.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -827,10 +1396,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="7">
-        <v>41860.0</v>
+        <v>41860</v>
       </c>
       <c r="F3" s="8">
         <v>0.875</v>
@@ -843,7 +1412,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="4">
-        <v>2612.0</v>
+        <v>2612</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>17</v>
@@ -851,16 +1420,16 @@
       <c r="L3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="10" t="str">
+      <c r="M3" s="10">
+        <f t="shared" si="0"/>
+        <v>45.829720000000002</v>
+      </c>
+      <c r="N3" s="10">
         <f t="shared" si="1"/>
-        <v>45.82972</v>
-      </c>
-      <c r="N3" s="10" t="str">
-        <f t="shared" si="2"/>
         <v>-129.75904</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:14" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -868,13 +1437,13 @@
         <v>24</v>
       </c>
       <c r="C4" s="11">
-        <v>1130.0</v>
+        <v>1130</v>
       </c>
       <c r="D4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="7">
-        <v>41860.0</v>
+        <v>41860</v>
       </c>
       <c r="F4" s="8">
         <v>0.875</v>
@@ -887,7 +1456,7 @@
         <v>16</v>
       </c>
       <c r="J4" s="4">
-        <v>2612.0</v>
+        <v>2612</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>17</v>
@@ -895,16 +1464,16 @@
       <c r="L4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="10" t="str">
+      <c r="M4" s="10">
+        <f t="shared" si="0"/>
+        <v>45.829720000000002</v>
+      </c>
+      <c r="N4" s="10">
         <f t="shared" si="1"/>
-        <v>45.82972</v>
-      </c>
-      <c r="N4" s="10" t="str">
-        <f t="shared" si="2"/>
         <v>-129.75904</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
+    <row r="5" spans="1:14" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -912,13 +1481,13 @@
         <v>26</v>
       </c>
       <c r="C5" s="6">
-        <v>3399.0</v>
+        <v>3399</v>
       </c>
       <c r="D5" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="7">
-        <v>41860.0</v>
+        <v>41860</v>
       </c>
       <c r="F5" s="8">
         <v>0.875</v>
@@ -931,7 +1500,7 @@
         <v>16</v>
       </c>
       <c r="J5" s="4">
-        <v>2612.0</v>
+        <v>2612</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>17</v>
@@ -939,16 +1508,16 @@
       <c r="L5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="10" t="str">
+      <c r="M5" s="10">
+        <f t="shared" si="0"/>
+        <v>45.829720000000002</v>
+      </c>
+      <c r="N5" s="10">
         <f t="shared" si="1"/>
-        <v>45.82972</v>
-      </c>
-      <c r="N5" s="10" t="str">
-        <f t="shared" si="2"/>
         <v>-129.75904</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:14" ht="13.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -956,13 +1525,13 @@
         <v>28</v>
       </c>
       <c r="C6" s="6">
-        <v>3397.0</v>
+        <v>3397</v>
       </c>
       <c r="D6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="7">
-        <v>41860.0</v>
+        <v>41860</v>
       </c>
       <c r="F6" s="8">
         <v>0.875</v>
@@ -975,7 +1544,7 @@
         <v>16</v>
       </c>
       <c r="J6" s="4">
-        <v>2612.0</v>
+        <v>2612</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>17</v>
@@ -983,16 +1552,16 @@
       <c r="L6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="10" t="str">
+      <c r="M6" s="10">
+        <f t="shared" si="0"/>
+        <v>45.829720000000002</v>
+      </c>
+      <c r="N6" s="10">
         <f t="shared" si="1"/>
-        <v>45.82972</v>
-      </c>
-      <c r="N6" s="10" t="str">
-        <f t="shared" si="2"/>
         <v>-129.75904</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
+    <row r="7" spans="1:14" ht="13.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -1000,13 +1569,13 @@
         <v>30</v>
       </c>
       <c r="C7" s="6">
-        <v>458.0</v>
+        <v>458</v>
       </c>
       <c r="D7" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="7">
-        <v>41860.0</v>
+        <v>41860</v>
       </c>
       <c r="F7" s="8">
         <v>0.875</v>
@@ -1019,7 +1588,7 @@
         <v>16</v>
       </c>
       <c r="J7" s="4">
-        <v>2612.0</v>
+        <v>2612</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>17</v>
@@ -1027,16 +1596,16 @@
       <c r="L7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="10" t="str">
+      <c r="M7" s="10">
+        <f t="shared" si="0"/>
+        <v>45.829720000000002</v>
+      </c>
+      <c r="N7" s="10">
         <f t="shared" si="1"/>
-        <v>45.82972</v>
-      </c>
-      <c r="N7" s="10" t="str">
-        <f t="shared" si="2"/>
         <v>-129.75904</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
+    <row r="8" spans="1:14" ht="13.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1047,10 +1616,10 @@
         <v>33</v>
       </c>
       <c r="D8" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="7">
-        <v>41860.0</v>
+        <v>41860</v>
       </c>
       <c r="F8" s="8">
         <v>0.875</v>
@@ -1063,7 +1632,7 @@
         <v>16</v>
       </c>
       <c r="J8" s="4">
-        <v>2612.0</v>
+        <v>2612</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>17</v>
@@ -1071,16 +1640,16 @@
       <c r="L8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="10" t="str">
+      <c r="M8" s="10">
+        <f t="shared" si="0"/>
+        <v>45.829720000000002</v>
+      </c>
+      <c r="N8" s="10">
         <f t="shared" si="1"/>
-        <v>45.82972</v>
-      </c>
-      <c r="N8" s="10" t="str">
-        <f t="shared" si="2"/>
         <v>-129.75904</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
+    <row r="9" spans="1:14" ht="13.5" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -1097,30 +1666,39 @@
       <c r="N9" s="14"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.63"/>
-    <col customWidth="1" min="2" max="2" width="15.88"/>
-    <col customWidth="1" min="3" max="3" width="14.75"/>
-    <col customWidth="1" min="4" max="4" width="10.63"/>
-    <col customWidth="1" min="5" max="5" width="17.25"/>
-    <col customWidth="1" min="6" max="6" width="13.75"/>
-    <col customWidth="1" min="7" max="7" width="26.63"/>
-    <col customWidth="1" min="8" max="8" width="63.38"/>
-    <col customWidth="1" min="9" max="9" width="72.63"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="63.33203125" customWidth="1"/>
+    <col min="9" max="9" width="72.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.0" customHeight="1">
+    <row r="1" spans="1:9" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1149,83 +1727,83 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:9" ht="14.25" customHeight="1">
       <c r="A2" s="15"/>
       <c r="B2" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!A:A,Moorings!B:B=left(A2,14),Moorings!D:D=D2))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!A:A,Moorings!B:B=left(A2,14),Moorings!D:D=D2))"),"")</f>
         <v/>
       </c>
       <c r="C2" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!C:C,Moorings!B:B=left(A2,14),Moorings!D:D=D2))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!C:C,Moorings!B:B=left(A2,14),Moorings!D:D=D2))"),"")</f>
         <v/>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!A:A,Moorings!B:B=A2,Moorings!D:D=D2))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!A:A,Moorings!B:B=A2,Moorings!D:D=D2))"),"")</f>
         <v/>
       </c>
       <c r="F2" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!C:C,Moorings!B:B=A2,Moorings!D:D=D2))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!C:C,Moorings!B:B=A2,Moorings!D:D=D2))"),"")</f>
         <v/>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="16"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:9" ht="14.25" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!A:A,Moorings!B:B=left(A3,14),Moorings!D:D=D3))"),"ATAPL-71403-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!A:A,Moorings!B:B=left(A3,14),Moorings!D:D=D3))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
       <c r="C3" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!C:C,Moorings!B:B=left(A3,14),Moorings!D:D=D3))"),"SN0001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!C:C,Moorings!B:B=left(A3,14),Moorings!D:D=D3))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
       <c r="D3" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!A:A,Moorings!B:B=A3,Moorings!D:D=D3))"),"ATAPL-67977-00002")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!A:A,Moorings!B:B=A3,Moorings!D:D=D3))"),"ATAPL-67977-00002")</f>
         <v>ATAPL-67977-00002</v>
       </c>
       <c r="F3" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!C:C,Moorings!B:B=A3,Moorings!D:D=D3))"),"5277187-0137")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!C:C,Moorings!B:B=A3,Moorings!D:D=D3))"),"5277187-0137")</f>
         <v>5277187-0137</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>40</v>
       </c>
       <c r="H3" s="22">
-        <v>45.8297</v>
+        <v>45.829700000000003</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:9" ht="14.25" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!A:A,Moorings!B:B=left(A4,14),Moorings!D:D=D4))"),"ATAPL-71403-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!A:A,Moorings!B:B=left(A4,14),Moorings!D:D=D4))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
       <c r="C4" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!C:C,Moorings!B:B=left(A4,14),Moorings!D:D=D4))"),"SN0001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!C:C,Moorings!B:B=left(A4,14),Moorings!D:D=D4))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
       <c r="D4" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!A:A,Moorings!B:B=A4,Moorings!D:D=D4))"),"ATAPL-67977-00002")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!A:A,Moorings!B:B=A4,Moorings!D:D=D4))"),"ATAPL-67977-00002")</f>
         <v>ATAPL-67977-00002</v>
       </c>
       <c r="F4" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!C:C,Moorings!B:B=A4,Moorings!D:D=D4))"),"5277187-0137")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!C:C,Moorings!B:B=A4,Moorings!D:D=D4))"),"5277187-0137")</f>
         <v>5277187-0137</v>
       </c>
       <c r="G4" s="22" t="s">
@@ -1236,23 +1814,23 @@
       </c>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:9" ht="14.25" customHeight="1">
       <c r="A5" s="18"/>
       <c r="B5" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!A:A,Moorings!B:B=left(A5,14),Moorings!D:D=D5))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!A:A,Moorings!B:B=left(A5,14),Moorings!D:D=D5))"),"")</f>
         <v/>
       </c>
       <c r="C5" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!C:C,Moorings!B:B=left(A5,14),Moorings!D:D=D5))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!C:C,Moorings!B:B=left(A5,14),Moorings!D:D=D5))"),"")</f>
         <v/>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!A:A,Moorings!B:B=A5,Moorings!D:D=D5))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!A:A,Moorings!B:B=A5,Moorings!D:D=D5))"),"")</f>
         <v/>
       </c>
       <c r="F5" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!C:C,Moorings!B:B=A5,Moorings!D:D=D5))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!C:C,Moorings!B:B=A5,Moorings!D:D=D5))"),"")</f>
         <v/>
       </c>
       <c r="G5" s="25"/>
@@ -1261,60 +1839,60 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!A:A,Moorings!B:B=left(A6,14),Moorings!D:D=D6))"),"ATAPL-71403-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!A:A,Moorings!B:B=left(A6,14),Moorings!D:D=D6))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
       <c r="C6" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!C:C,Moorings!B:B=left(A6,14),Moorings!D:D=D6))"),"SN0001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!C:C,Moorings!B:B=left(A6,14),Moorings!D:D=D6))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
       <c r="D6" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!A:A,Moorings!B:B=A6,Moorings!D:D=D6))"),"ATAPL-58346-00002")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!A:A,Moorings!B:B=A6,Moorings!D:D=D6))"),"ATAPL-58346-00002")</f>
         <v>ATAPL-58346-00002</v>
       </c>
       <c r="F6" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!C:C,Moorings!B:B=A6,Moorings!D:D=D6))"),"1130")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!C:C,Moorings!B:B=A6,Moorings!D:D=D6))"),"1130")</f>
         <v>1130</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="22">
-        <v>45.8297</v>
+        <v>45.829700000000003</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:9" ht="14.25" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!A:A,Moorings!B:B=left(A7,14),Moorings!D:D=D7))"),"ATAPL-71403-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!A:A,Moorings!B:B=left(A7,14),Moorings!D:D=D7))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
       <c r="C7" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!C:C,Moorings!B:B=left(A7,14),Moorings!D:D=D7))"),"SN0001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!C:C,Moorings!B:B=left(A7,14),Moorings!D:D=D7))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
       <c r="D7" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!A:A,Moorings!B:B=A7,Moorings!D:D=D7))"),"ATAPL-58346-00002")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!A:A,Moorings!B:B=A7,Moorings!D:D=D7))"),"ATAPL-58346-00002")</f>
         <v>ATAPL-58346-00002</v>
       </c>
       <c r="F7" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!C:C,Moorings!B:B=A7,Moorings!D:D=D7))"),"1130")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!C:C,Moorings!B:B=A7,Moorings!D:D=D7))"),"1130")</f>
         <v>1130</v>
       </c>
       <c r="G7" s="22" t="s">
@@ -1325,27 +1903,27 @@
       </c>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!A:A,Moorings!B:B=left(A8,14),Moorings!D:D=D8))"),"ATAPL-71403-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!A:A,Moorings!B:B=left(A8,14),Moorings!D:D=D8))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
       <c r="C8" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!C:C,Moorings!B:B=left(A8,14),Moorings!D:D=D8))"),"SN0001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!C:C,Moorings!B:B=left(A8,14),Moorings!D:D=D8))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
       <c r="D8" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!A:A,Moorings!B:B=A8,Moorings!D:D=D8))"),"ATAPL-58346-00002")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!A:A,Moorings!B:B=A8,Moorings!D:D=D8))"),"ATAPL-58346-00002")</f>
         <v>ATAPL-58346-00002</v>
       </c>
       <c r="F8" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!C:C,Moorings!B:B=A8,Moorings!D:D=D8))"),"1130")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!C:C,Moorings!B:B=A8,Moorings!D:D=D8))"),"1130")</f>
         <v>1130</v>
       </c>
       <c r="G8" s="26" t="s">
@@ -1356,27 +1934,27 @@
       </c>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:9" ht="14.25" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!A:A,Moorings!B:B=left(A9,14),Moorings!D:D=D9))"),"ATAPL-71403-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!A:A,Moorings!B:B=left(A9,14),Moorings!D:D=D9))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
       <c r="C9" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!C:C,Moorings!B:B=left(A9,14),Moorings!D:D=D9))"),"SN0001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!C:C,Moorings!B:B=left(A9,14),Moorings!D:D=D9))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
       <c r="D9" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!A:A,Moorings!B:B=A9,Moorings!D:D=D9))"),"ATAPL-58346-00002")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!A:A,Moorings!B:B=A9,Moorings!D:D=D9))"),"ATAPL-58346-00002")</f>
         <v>ATAPL-58346-00002</v>
       </c>
       <c r="F9" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!C:C,Moorings!B:B=A9,Moorings!D:D=D9))"),"1130")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!C:C,Moorings!B:B=A9,Moorings!D:D=D9))"),"1130")</f>
         <v>1130</v>
       </c>
       <c r="G9" s="18" t="s">
@@ -1387,27 +1965,27 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:9" ht="14.25" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!A:A,Moorings!B:B=left(A10,14),Moorings!D:D=D10))"),"ATAPL-71403-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!A:A,Moorings!B:B=left(A10,14),Moorings!D:D=D10))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
       <c r="C10" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!C:C,Moorings!B:B=left(A10,14),Moorings!D:D=D10))"),"SN0001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!C:C,Moorings!B:B=left(A10,14),Moorings!D:D=D10))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
       <c r="D10" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!A:A,Moorings!B:B=A10,Moorings!D:D=D10))"),"ATAPL-58346-00002")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!A:A,Moorings!B:B=A10,Moorings!D:D=D10))"),"ATAPL-58346-00002")</f>
         <v>ATAPL-58346-00002</v>
       </c>
       <c r="F10" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!C:C,Moorings!B:B=A10,Moorings!D:D=D10))"),"1130")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!C:C,Moorings!B:B=A10,Moorings!D:D=D10))"),"1130")</f>
         <v>1130</v>
       </c>
       <c r="G10" s="18" t="s">
@@ -1418,453 +1996,453 @@
       </c>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:9" ht="14.25" customHeight="1">
       <c r="A11" s="18"/>
       <c r="B11" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!A:A,Moorings!B:B=left(A11,14),Moorings!D:D=D11))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!A:A,Moorings!B:B=left(A11,14),Moorings!D:D=D11))"),"")</f>
         <v/>
       </c>
       <c r="C11" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!C:C,Moorings!B:B=left(A11,14),Moorings!D:D=D11))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!C:C,Moorings!B:B=left(A11,14),Moorings!D:D=D11))"),"")</f>
         <v/>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!A:A,Moorings!B:B=A11,Moorings!D:D=D11))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!A:A,Moorings!B:B=A11,Moorings!D:D=D11))"),"")</f>
         <v/>
       </c>
       <c r="F11" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!C:C,Moorings!B:B=A11,Moorings!D:D=D11))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!C:C,Moorings!B:B=A11,Moorings!D:D=D11))"),"")</f>
         <v/>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:9" ht="14.25" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!A:A,Moorings!B:B=left(A12,14),Moorings!D:D=D12))"),"ATAPL-71403-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!A:A,Moorings!B:B=left(A12,14),Moorings!D:D=D12))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
       <c r="C12" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!C:C,Moorings!B:B=left(A12,14),Moorings!D:D=D12))"),"SN0001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!C:C,Moorings!B:B=left(A12,14),Moorings!D:D=D12))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
       <c r="D12" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!A:A,Moorings!B:B=A12,Moorings!D:D=D12))"),"ATAPL-70111-00002")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!A:A,Moorings!B:B=A12,Moorings!D:D=D12))"),"ATAPL-70111-00002")</f>
         <v>ATAPL-70111-00002</v>
       </c>
       <c r="F12" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!C:C,Moorings!B:B=A12,Moorings!D:D=D12))"),"3399")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!C:C,Moorings!B:B=A12,Moorings!D:D=D12))"),"3399")</f>
         <v>3399</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>50</v>
       </c>
       <c r="H12" s="27">
-        <v>0.0301</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:9" ht="14.25" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!A:A,Moorings!B:B=left(A13,14),Moorings!D:D=D13))"),"ATAPL-71403-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!A:A,Moorings!B:B=left(A13,14),Moorings!D:D=D13))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
       <c r="C13" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!C:C,Moorings!B:B=left(A13,14),Moorings!D:D=D13))"),"SN0001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!C:C,Moorings!B:B=left(A13,14),Moorings!D:D=D13))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
       <c r="D13" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!A:A,Moorings!B:B=A13,Moorings!D:D=D13))"),"ATAPL-70111-00002")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!A:A,Moorings!B:B=A13,Moorings!D:D=D13))"),"ATAPL-70111-00002")</f>
         <v>ATAPL-70111-00002</v>
       </c>
       <c r="F13" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!C:C,Moorings!B:B=A13,Moorings!D:D=D13))"),"3399")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!C:C,Moorings!B:B=A13,Moorings!D:D=D13))"),"3399")</f>
         <v>3399</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>51</v>
       </c>
       <c r="H13" s="27">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:9" ht="14.25" customHeight="1">
       <c r="A14" s="18"/>
       <c r="B14" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!A:A,Moorings!B:B=left(A14,14),Moorings!D:D=D14))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!A:A,Moorings!B:B=left(A14,14),Moorings!D:D=D14))"),"")</f>
         <v/>
       </c>
       <c r="C14" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!C:C,Moorings!B:B=left(A14,14),Moorings!D:D=D14))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!C:C,Moorings!B:B=left(A14,14),Moorings!D:D=D14))"),"")</f>
         <v/>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!A:A,Moorings!B:B=A14,Moorings!D:D=D14))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!A:A,Moorings!B:B=A14,Moorings!D:D=D14))"),"")</f>
         <v/>
       </c>
       <c r="F14" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!C:C,Moorings!B:B=A14,Moorings!D:D=D14))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!C:C,Moorings!B:B=A14,Moorings!D:D=D14))"),"")</f>
         <v/>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:9" ht="14.25" customHeight="1">
       <c r="A15" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!A:A,Moorings!B:B=left(A15,14),Moorings!D:D=D15))"),"ATAPL-71403-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!A:A,Moorings!B:B=left(A15,14),Moorings!D:D=D15))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
       <c r="C15" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!C:C,Moorings!B:B=left(A15,14),Moorings!D:D=D15))"),"SN0001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!C:C,Moorings!B:B=left(A15,14),Moorings!D:D=D15))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
       <c r="D15" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!A:A,Moorings!B:B=A15,Moorings!D:D=D15))"),"ATAPL-70110-00002")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!A:A,Moorings!B:B=A15,Moorings!D:D=D15))"),"ATAPL-70110-00002")</f>
         <v>ATAPL-70110-00002</v>
       </c>
       <c r="F15" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!C:C,Moorings!B:B=A15,Moorings!D:D=D15))"),"3397")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!C:C,Moorings!B:B=A15,Moorings!D:D=D15))"),"3397")</f>
         <v>3397</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>52</v>
       </c>
       <c r="H15" s="29">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I15" s="27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:9" ht="14.25" customHeight="1">
       <c r="A16" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A16),"""",filter(Moorings!A:A,Moorings!B:B=left(A16,14),Moorings!D:D=D16))"),"ATAPL-71403-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A16),"""",filter(Moorings!A:A,Moorings!B:B=left(A16,14),Moorings!D:D=D16))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
       <c r="C16" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A16),"""",filter(Moorings!C:C,Moorings!B:B=left(A16,14),Moorings!D:D=D16))"),"SN0001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A16),"""",filter(Moorings!C:C,Moorings!B:B=left(A16,14),Moorings!D:D=D16))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
       <c r="D16" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A16),"""",filter(Moorings!A:A,Moorings!B:B=A16,Moorings!D:D=D16))"),"ATAPL-70110-00002")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A16),"""",filter(Moorings!A:A,Moorings!B:B=A16,Moorings!D:D=D16))"),"ATAPL-70110-00002")</f>
         <v>ATAPL-70110-00002</v>
       </c>
       <c r="F16" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A16),"""",filter(Moorings!C:C,Moorings!B:B=A16,Moorings!D:D=D16))"),"3397")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A16),"""",filter(Moorings!C:C,Moorings!B:B=A16,Moorings!D:D=D16))"),"3397")</f>
         <v>3397</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>54</v>
       </c>
       <c r="H16" s="29">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I16" s="27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:9" ht="14.25" customHeight="1">
       <c r="A17" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A17),"""",filter(Moorings!A:A,Moorings!B:B=left(A17,14),Moorings!D:D=D17))"),"ATAPL-71403-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A17),"""",filter(Moorings!A:A,Moorings!B:B=left(A17,14),Moorings!D:D=D17))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
       <c r="C17" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A17),"""",filter(Moorings!C:C,Moorings!B:B=left(A17,14),Moorings!D:D=D17))"),"SN0001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A17),"""",filter(Moorings!C:C,Moorings!B:B=left(A17,14),Moorings!D:D=D17))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
       <c r="D17" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A17),"""",filter(Moorings!A:A,Moorings!B:B=A17,Moorings!D:D=D17))"),"ATAPL-70110-00002")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A17),"""",filter(Moorings!A:A,Moorings!B:B=A17,Moorings!D:D=D17))"),"ATAPL-70110-00002")</f>
         <v>ATAPL-70110-00002</v>
       </c>
       <c r="F17" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A17),"""",filter(Moorings!C:C,Moorings!B:B=A17,Moorings!D:D=D17))"),"3397")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A17),"""",filter(Moorings!C:C,Moorings!B:B=A17,Moorings!D:D=D17))"),"3397")</f>
         <v>3397</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>55</v>
       </c>
       <c r="H17" s="18">
-        <v>0.0121</v>
+        <v>1.21E-2</v>
       </c>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:9" ht="14.25" customHeight="1">
       <c r="A18" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A18),"""",filter(Moorings!A:A,Moorings!B:B=left(A18,14),Moorings!D:D=D18))"),"ATAPL-71403-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A18),"""",filter(Moorings!A:A,Moorings!B:B=left(A18,14),Moorings!D:D=D18))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
       <c r="C18" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A18),"""",filter(Moorings!C:C,Moorings!B:B=left(A18,14),Moorings!D:D=D18))"),"SN0001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A18),"""",filter(Moorings!C:C,Moorings!B:B=left(A18,14),Moorings!D:D=D18))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
       <c r="D18" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A18),"""",filter(Moorings!A:A,Moorings!B:B=A18,Moorings!D:D=D18))"),"ATAPL-70110-00002")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A18),"""",filter(Moorings!A:A,Moorings!B:B=A18,Moorings!D:D=D18))"),"ATAPL-70110-00002")</f>
         <v>ATAPL-70110-00002</v>
       </c>
       <c r="F18" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A18),"""",filter(Moorings!C:C,Moorings!B:B=A18,Moorings!D:D=D18))"),"3397")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A18),"""",filter(Moorings!C:C,Moorings!B:B=A18,Moorings!D:D=D18))"),"3397")</f>
         <v>3397</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>56</v>
       </c>
       <c r="H18" s="23">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:9" ht="14.25" customHeight="1">
       <c r="A19" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A19),"""",filter(Moorings!A:A,Moorings!B:B=left(A19,14),Moorings!D:D=D19))"),"ATAPL-71403-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A19),"""",filter(Moorings!A:A,Moorings!B:B=left(A19,14),Moorings!D:D=D19))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
       <c r="C19" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A19),"""",filter(Moorings!C:C,Moorings!B:B=left(A19,14),Moorings!D:D=D19))"),"SN0001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A19),"""",filter(Moorings!C:C,Moorings!B:B=left(A19,14),Moorings!D:D=D19))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
       <c r="D19" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A19),"""",filter(Moorings!A:A,Moorings!B:B=A19,Moorings!D:D=D19))"),"ATAPL-70110-00002")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A19),"""",filter(Moorings!A:A,Moorings!B:B=A19,Moorings!D:D=D19))"),"ATAPL-70110-00002")</f>
         <v>ATAPL-70110-00002</v>
       </c>
       <c r="F19" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A19),"""",filter(Moorings!C:C,Moorings!B:B=A19,Moorings!D:D=D19))"),"3397")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A19),"""",filter(Moorings!C:C,Moorings!B:B=A19,Moorings!D:D=D19))"),"3397")</f>
         <v>3397</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>57</v>
       </c>
       <c r="H19" s="23">
-        <v>117.0</v>
+        <v>140</v>
       </c>
       <c r="I19" s="23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:9" ht="14.25" customHeight="1">
       <c r="A20" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A20),"""",filter(Moorings!A:A,Moorings!B:B=left(A20,14),Moorings!D:D=D20))"),"ATAPL-71403-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A20),"""",filter(Moorings!A:A,Moorings!B:B=left(A20,14),Moorings!D:D=D20))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
       <c r="C20" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A20),"""",filter(Moorings!C:C,Moorings!B:B=left(A20,14),Moorings!D:D=D20))"),"SN0001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A20),"""",filter(Moorings!C:C,Moorings!B:B=left(A20,14),Moorings!D:D=D20))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
       <c r="D20" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A20),"""",filter(Moorings!A:A,Moorings!B:B=A20,Moorings!D:D=D20))"),"ATAPL-70110-00002")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A20),"""",filter(Moorings!A:A,Moorings!B:B=A20,Moorings!D:D=D20))"),"ATAPL-70110-00002")</f>
         <v>ATAPL-70110-00002</v>
       </c>
       <c r="F20" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A20),"""",filter(Moorings!C:C,Moorings!B:B=A20,Moorings!D:D=D20))"),"3397")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A20),"""",filter(Moorings!C:C,Moorings!B:B=A20,Moorings!D:D=D20))"),"3397")</f>
         <v>3397</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>59</v>
       </c>
       <c r="H20" s="23">
-        <v>700.0</v>
+        <v>700</v>
       </c>
       <c r="I20" s="23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:9" ht="14.25" customHeight="1">
       <c r="A21" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A21),"""",filter(Moorings!A:A,Moorings!B:B=left(A21,14),Moorings!D:D=D21))"),"ATAPL-71403-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A21),"""",filter(Moorings!A:A,Moorings!B:B=left(A21,14),Moorings!D:D=D21))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
       <c r="C21" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A21),"""",filter(Moorings!C:C,Moorings!B:B=left(A21,14),Moorings!D:D=D21))"),"SN0001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A21),"""",filter(Moorings!C:C,Moorings!B:B=left(A21,14),Moorings!D:D=D21))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
       <c r="D21" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A21),"""",filter(Moorings!A:A,Moorings!B:B=A21,Moorings!D:D=D21))"),"ATAPL-70110-00002")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A21),"""",filter(Moorings!A:A,Moorings!B:B=A21,Moorings!D:D=D21))"),"ATAPL-70110-00002")</f>
         <v>ATAPL-70110-00002</v>
       </c>
       <c r="F21" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A21),"""",filter(Moorings!C:C,Moorings!B:B=A21,Moorings!D:D=D21))"),"3397")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A21),"""",filter(Moorings!C:C,Moorings!B:B=A21,Moorings!D:D=D21))"),"3397")</f>
         <v>3397</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>60</v>
       </c>
       <c r="H21" s="23">
-        <v>1.08</v>
+        <v>1.0960000000000001</v>
       </c>
       <c r="I21" s="23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:9" ht="14.25" customHeight="1">
       <c r="A22" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A22),"""",filter(Moorings!A:A,Moorings!B:B=left(A22,14),Moorings!D:D=D22))"),"ATAPL-71403-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A22),"""",filter(Moorings!A:A,Moorings!B:B=left(A22,14),Moorings!D:D=D22))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
       <c r="C22" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A22),"""",filter(Moorings!C:C,Moorings!B:B=left(A22,14),Moorings!D:D=D22))"),"SN0001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A22),"""",filter(Moorings!C:C,Moorings!B:B=left(A22,14),Moorings!D:D=D22))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
       <c r="D22" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A22),"""",filter(Moorings!A:A,Moorings!B:B=A22,Moorings!D:D=D22))"),"ATAPL-70110-00002")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A22),"""",filter(Moorings!A:A,Moorings!B:B=A22,Moorings!D:D=D22))"),"ATAPL-70110-00002")</f>
         <v>ATAPL-70110-00002</v>
       </c>
       <c r="F22" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A22),"""",filter(Moorings!C:C,Moorings!B:B=A22,Moorings!D:D=D22))"),"3397")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A22),"""",filter(Moorings!C:C,Moorings!B:B=A22,Moorings!D:D=D22))"),"3397")</f>
         <v>3397</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H22" s="23">
-        <v>0.039</v>
+        <v>3.9E-2</v>
       </c>
       <c r="I22" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:9" ht="14.25" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A23),"""",filter(Moorings!A:A,Moorings!B:B=left(A23,14),Moorings!D:D=D23))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A23),"""",filter(Moorings!A:A,Moorings!B:B=left(A23,14),Moorings!D:D=D23))"),"")</f>
         <v/>
       </c>
       <c r="C23" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A23),"""",filter(Moorings!C:C,Moorings!B:B=left(A23,14),Moorings!D:D=D23))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A23),"""",filter(Moorings!C:C,Moorings!B:B=left(A23,14),Moorings!D:D=D23))"),"")</f>
         <v/>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A23),"""",filter(Moorings!A:A,Moorings!B:B=A23,Moorings!D:D=D23))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A23),"""",filter(Moorings!A:A,Moorings!B:B=A23,Moorings!D:D=D23))"),"")</f>
         <v/>
       </c>
       <c r="F23" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A23),"""",filter(Moorings!C:C,Moorings!B:B=A23,Moorings!D:D=D23))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A23),"""",filter(Moorings!C:C,Moorings!B:B=A23,Moorings!D:D=D23))"),"")</f>
         <v/>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:9" ht="14.25" customHeight="1">
       <c r="A24" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A24),"""",filter(Moorings!A:A,Moorings!B:B=left(A24,14),Moorings!D:D=D24))"),"ATAPL-71403-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A24),"""",filter(Moorings!A:A,Moorings!B:B=left(A24,14),Moorings!D:D=D24))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
       <c r="C24" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A24),"""",filter(Moorings!C:C,Moorings!B:B=left(A24,14),Moorings!D:D=D24))"),"SN0001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A24),"""",filter(Moorings!C:C,Moorings!B:B=left(A24,14),Moorings!D:D=D24))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
       <c r="D24" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A24),"""",filter(Moorings!A:A,Moorings!B:B=A24,Moorings!D:D=D24))"),"ATAPL-58320-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A24),"""",filter(Moorings!A:A,Moorings!B:B=A24,Moorings!D:D=D24))"),"ATAPL-58320-00001")</f>
         <v>ATAPL-58320-00001</v>
       </c>
       <c r="F24" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A24),"""",filter(Moorings!C:C,Moorings!B:B=A24,Moorings!D:D=D24))"),"458")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A24),"""",filter(Moorings!C:C,Moorings!B:B=A24,Moorings!D:D=D24))"),"458")</f>
         <v>458</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>40</v>
       </c>
       <c r="H24" s="22">
-        <v>45.8297</v>
+        <v>45.829700000000003</v>
       </c>
       <c r="I24" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:9" ht="14.25" customHeight="1">
       <c r="A25" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A25),"""",filter(Moorings!A:A,Moorings!B:B=left(A25,14),Moorings!D:D=D25))"),"ATAPL-71403-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A25),"""",filter(Moorings!A:A,Moorings!B:B=left(A25,14),Moorings!D:D=D25))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
       <c r="C25" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A25),"""",filter(Moorings!C:C,Moorings!B:B=left(A25,14),Moorings!D:D=D25))"),"SN0001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A25),"""",filter(Moorings!C:C,Moorings!B:B=left(A25,14),Moorings!D:D=D25))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
       <c r="D25" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A25),"""",filter(Moorings!A:A,Moorings!B:B=A25,Moorings!D:D=D25))"),"ATAPL-58320-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A25),"""",filter(Moorings!A:A,Moorings!B:B=A25,Moorings!D:D=D25))"),"ATAPL-58320-00001")</f>
         <v>ATAPL-58320-00001</v>
       </c>
       <c r="F25" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A25),"""",filter(Moorings!C:C,Moorings!B:B=A25,Moorings!D:D=D25))"),"458")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A25),"""",filter(Moorings!C:C,Moorings!B:B=A25,Moorings!D:D=D25))"),"458")</f>
         <v>458</v>
       </c>
       <c r="G25" s="22" t="s">
@@ -1877,27 +2455,27 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:9" ht="14.25" customHeight="1">
       <c r="A26" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A26),"""",filter(Moorings!A:A,Moorings!B:B=left(A26,14),Moorings!D:D=D26))"),"ATAPL-71403-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A26),"""",filter(Moorings!A:A,Moorings!B:B=left(A26,14),Moorings!D:D=D26))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
       <c r="C26" s="20" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A26),"""",filter(Moorings!C:C,Moorings!B:B=left(A26,14),Moorings!D:D=D26))"),"SN0001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A26),"""",filter(Moorings!C:C,Moorings!B:B=left(A26,14),Moorings!D:D=D26))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
       <c r="D26" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A26),"""",filter(Moorings!A:A,Moorings!B:B=A26,Moorings!D:D=D26))"),"ATAPL-58320-00001")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A26),"""",filter(Moorings!A:A,Moorings!B:B=A26,Moorings!D:D=D26))"),"ATAPL-58320-00001")</f>
         <v>ATAPL-58320-00001</v>
       </c>
       <c r="F26" s="19" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A26),"""",filter(Moorings!C:C,Moorings!B:B=A26,Moorings!D:D=D26))"),"458")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A26),"""",filter(Moorings!C:C,Moorings!B:B=A26,Moorings!D:D=D26))"),"458")</f>
         <v>458</v>
       </c>
       <c r="G26" s="26" t="s">
@@ -1908,46 +2486,46 @@
       </c>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:9" ht="14.25" customHeight="1">
       <c r="A27" s="25"/>
       <c r="B27" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A27),"""",filter(Moorings!A:A,Moorings!B:B=left(A27,14),Moorings!D:D=D27))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A27),"""",filter(Moorings!A:A,Moorings!B:B=left(A27,14),Moorings!D:D=D27))"),"")</f>
         <v/>
       </c>
       <c r="C27" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A27),"""",filter(Moorings!C:C,Moorings!B:B=left(A27,14),Moorings!D:D=D27))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A27),"""",filter(Moorings!C:C,Moorings!B:B=left(A27,14),Moorings!D:D=D27))"),"")</f>
         <v/>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A27),"""",filter(Moorings!A:A,Moorings!B:B=A27,Moorings!D:D=D27))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A27),"""",filter(Moorings!A:A,Moorings!B:B=A27,Moorings!D:D=D27))"),"")</f>
         <v/>
       </c>
       <c r="F27" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A27),"""",filter(Moorings!C:C,Moorings!B:B=A27,Moorings!D:D=D27))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A27),"""",filter(Moorings!C:C,Moorings!B:B=A27,Moorings!D:D=D27))"),"")</f>
         <v/>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:9" ht="14.25" customHeight="1">
       <c r="A28" s="27"/>
       <c r="B28" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A28),"""",filter(Moorings!A:A,Moorings!B:B=left(A28,14),Moorings!D:D=D28))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A28),"""",filter(Moorings!A:A,Moorings!B:B=left(A28,14),Moorings!D:D=D28))"),"")</f>
         <v/>
       </c>
       <c r="C28" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A28),"""",filter(Moorings!C:C,Moorings!B:B=left(A28,14),Moorings!D:D=D28))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A28),"""",filter(Moorings!C:C,Moorings!B:B=left(A28,14),Moorings!D:D=D28))"),"")</f>
         <v/>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A28),"""",filter(Moorings!A:A,Moorings!B:B=A28,Moorings!D:D=D28))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A28),"""",filter(Moorings!A:A,Moorings!B:B=A28,Moorings!D:D=D28))"),"")</f>
         <v/>
       </c>
       <c r="F28" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A28),"""",filter(Moorings!C:C,Moorings!B:B=A28,Moorings!D:D=D28))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A28),"""",filter(Moorings!C:C,Moorings!B:B=A28,Moorings!D:D=D28))"),"")</f>
         <v/>
       </c>
       <c r="G28" s="25"/>
@@ -1956,161 +2534,161 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:9" ht="14.25" customHeight="1">
       <c r="A29" s="25"/>
       <c r="B29" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A29),"""",filter(Moorings!A:A,Moorings!B:B=left(A29,14),Moorings!D:D=D29))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A29),"""",filter(Moorings!A:A,Moorings!B:B=left(A29,14),Moorings!D:D=D29))"),"")</f>
         <v/>
       </c>
       <c r="C29" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A29),"""",filter(Moorings!C:C,Moorings!B:B=left(A29,14),Moorings!D:D=D29))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A29),"""",filter(Moorings!C:C,Moorings!B:B=left(A29,14),Moorings!D:D=D29))"),"")</f>
         <v/>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A29),"""",filter(Moorings!A:A,Moorings!B:B=A29,Moorings!D:D=D29))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A29),"""",filter(Moorings!A:A,Moorings!B:B=A29,Moorings!D:D=D29))"),"")</f>
         <v/>
       </c>
       <c r="F29" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A29),"""",filter(Moorings!C:C,Moorings!B:B=A29,Moorings!D:D=D29))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A29),"""",filter(Moorings!C:C,Moorings!B:B=A29,Moorings!D:D=D29))"),"")</f>
         <v/>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" ht="14">
       <c r="A30" s="31"/>
       <c r="B30" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A30),"""",filter(Moorings!A:A,Moorings!B:B=left(A30,14),Moorings!D:D=D30))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A30),"""",filter(Moorings!A:A,Moorings!B:B=left(A30,14),Moorings!D:D=D30))"),"")</f>
         <v/>
       </c>
       <c r="C30" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A30),"""",filter(Moorings!C:C,Moorings!B:B=left(A30,14),Moorings!D:D=D30))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A30),"""",filter(Moorings!C:C,Moorings!B:B=left(A30,14),Moorings!D:D=D30))"),"")</f>
         <v/>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A30),"""",filter(Moorings!A:A,Moorings!B:B=A30,Moorings!D:D=D30))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A30),"""",filter(Moorings!A:A,Moorings!B:B=A30,Moorings!D:D=D30))"),"")</f>
         <v/>
       </c>
       <c r="F30" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A30),"""",filter(Moorings!C:C,Moorings!B:B=A30,Moorings!D:D=D30))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A30),"""",filter(Moorings!C:C,Moorings!B:B=A30,Moorings!D:D=D30))"),"")</f>
         <v/>
       </c>
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" ht="14">
       <c r="A31" s="31"/>
       <c r="B31" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A31),"""",filter(Moorings!A:A,Moorings!B:B=left(A31,14),Moorings!D:D=D31))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A31),"""",filter(Moorings!A:A,Moorings!B:B=left(A31,14),Moorings!D:D=D31))"),"")</f>
         <v/>
       </c>
       <c r="C31" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A31),"""",filter(Moorings!C:C,Moorings!B:B=left(A31,14),Moorings!D:D=D31))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A31),"""",filter(Moorings!C:C,Moorings!B:B=left(A31,14),Moorings!D:D=D31))"),"")</f>
         <v/>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A31),"""",filter(Moorings!A:A,Moorings!B:B=A31,Moorings!D:D=D31))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A31),"""",filter(Moorings!A:A,Moorings!B:B=A31,Moorings!D:D=D31))"),"")</f>
         <v/>
       </c>
       <c r="F31" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A31),"""",filter(Moorings!C:C,Moorings!B:B=A31,Moorings!D:D=D31))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A31),"""",filter(Moorings!C:C,Moorings!B:B=A31,Moorings!D:D=D31))"),"")</f>
         <v/>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="31"/>
       <c r="I31" s="31"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" ht="14">
       <c r="A32" s="31"/>
       <c r="B32" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A32),"""",filter(Moorings!A:A,Moorings!B:B=left(A32,14),Moorings!D:D=D32))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A32),"""",filter(Moorings!A:A,Moorings!B:B=left(A32,14),Moorings!D:D=D32))"),"")</f>
         <v/>
       </c>
       <c r="C32" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A32),"""",filter(Moorings!C:C,Moorings!B:B=left(A32,14),Moorings!D:D=D32))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A32),"""",filter(Moorings!C:C,Moorings!B:B=left(A32,14),Moorings!D:D=D32))"),"")</f>
         <v/>
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A32),"""",filter(Moorings!A:A,Moorings!B:B=A32,Moorings!D:D=D32))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A32),"""",filter(Moorings!A:A,Moorings!B:B=A32,Moorings!D:D=D32))"),"")</f>
         <v/>
       </c>
       <c r="F32" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A32),"""",filter(Moorings!C:C,Moorings!B:B=A32,Moorings!D:D=D32))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A32),"""",filter(Moorings!C:C,Moorings!B:B=A32,Moorings!D:D=D32))"),"")</f>
         <v/>
       </c>
       <c r="G32" s="31"/>
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:9" ht="14">
       <c r="A33" s="31"/>
       <c r="B33" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A33),"""",filter(Moorings!A:A,Moorings!B:B=left(A33,14),Moorings!D:D=D33))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A33),"""",filter(Moorings!A:A,Moorings!B:B=left(A33,14),Moorings!D:D=D33))"),"")</f>
         <v/>
       </c>
       <c r="C33" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A33),"""",filter(Moorings!C:C,Moorings!B:B=left(A33,14),Moorings!D:D=D33))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A33),"""",filter(Moorings!C:C,Moorings!B:B=left(A33,14),Moorings!D:D=D33))"),"")</f>
         <v/>
       </c>
       <c r="D33" s="32"/>
       <c r="E33" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A33),"""",filter(Moorings!A:A,Moorings!B:B=A33,Moorings!D:D=D33))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A33),"""",filter(Moorings!A:A,Moorings!B:B=A33,Moorings!D:D=D33))"),"")</f>
         <v/>
       </c>
       <c r="F33" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A33),"""",filter(Moorings!C:C,Moorings!B:B=A33,Moorings!D:D=D33))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A33),"""",filter(Moorings!C:C,Moorings!B:B=A33,Moorings!D:D=D33))"),"")</f>
         <v/>
       </c>
       <c r="G33" s="31"/>
       <c r="H33" s="31"/>
       <c r="I33" s="31"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:9" ht="14">
       <c r="A34" s="31"/>
       <c r="B34" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A34),"""",filter(Moorings!A:A,Moorings!B:B=left(A34,14),Moorings!D:D=D34))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A34),"""",filter(Moorings!A:A,Moorings!B:B=left(A34,14),Moorings!D:D=D34))"),"")</f>
         <v/>
       </c>
       <c r="C34" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A34),"""",filter(Moorings!C:C,Moorings!B:B=left(A34,14),Moorings!D:D=D34))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A34),"""",filter(Moorings!C:C,Moorings!B:B=left(A34,14),Moorings!D:D=D34))"),"")</f>
         <v/>
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A34),"""",filter(Moorings!A:A,Moorings!B:B=A34,Moorings!D:D=D34))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A34),"""",filter(Moorings!A:A,Moorings!B:B=A34,Moorings!D:D=D34))"),"")</f>
         <v/>
       </c>
       <c r="F34" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A34),"""",filter(Moorings!C:C,Moorings!B:B=A34,Moorings!D:D=D34))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A34),"""",filter(Moorings!C:C,Moorings!B:B=A34,Moorings!D:D=D34))"),"")</f>
         <v/>
       </c>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
       <c r="I34" s="31"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:9" ht="14">
       <c r="A35" s="31"/>
       <c r="B35" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A35),"""",filter(Moorings!A:A,Moorings!B:B=left(A35,14),Moorings!D:D=D35))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A35),"""",filter(Moorings!A:A,Moorings!B:B=left(A35,14),Moorings!D:D=D35))"),"")</f>
         <v/>
       </c>
       <c r="C35" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A35),"""",filter(Moorings!C:C,Moorings!B:B=left(A35,14),Moorings!D:D=D35))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A35),"""",filter(Moorings!C:C,Moorings!B:B=left(A35,14),Moorings!D:D=D35))"),"")</f>
         <v/>
       </c>
       <c r="D35" s="32"/>
       <c r="E35" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A35),"""",filter(Moorings!A:A,Moorings!B:B=A35,Moorings!D:D=D35))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A35),"""",filter(Moorings!A:A,Moorings!B:B=A35,Moorings!D:D=D35))"),"")</f>
         <v/>
       </c>
       <c r="F35" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A35),"""",filter(Moorings!C:C,Moorings!B:B=A35,Moorings!D:D=D35))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A35),"""",filter(Moorings!C:C,Moorings!B:B=A35,Moorings!D:D=D35))"),"")</f>
         <v/>
       </c>
       <c r="G35" s="31"/>
@@ -2118,31 +2696,38 @@
       <c r="I35" s="31"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.13"/>
-    <col customWidth="1" min="2" max="2" width="15.0"/>
-    <col customWidth="1" min="3" max="3" width="27.63"/>
-    <col customWidth="1" min="4" max="4" width="6.75"/>
-    <col customWidth="1" min="5" max="5" width="19.0"/>
-    <col customWidth="1" min="6" max="6" width="8.63"/>
-    <col customWidth="1" min="7" max="7" width="10.0"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="33" t="s">
         <v>67</v>
       </c>
@@ -2165,48 +2750,48 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7">
       <c r="A2" s="35" t="str">
         <f>Moorings!A2</f>
         <v>ATAPL-71403-00001</v>
       </c>
       <c r="B2" s="35" t="str">
-        <f>if(D2="Mooring",Moorings!B2,"")</f>
+        <f>IF(D2="Mooring",Moorings!B2,"")</f>
         <v>RS03AXPD-DP03A</v>
       </c>
       <c r="C2" s="36" t="str">
-        <f>if(D2="Sensor",Moorings!B2,"")</f>
+        <f>IF(D2="Sensor",Moorings!B2,"")</f>
         <v/>
       </c>
       <c r="D2" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B2),"",if(len(Moorings!B2)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B2),"",IF(LEN(Moorings!B2)&gt;14,"Sensor","Mooring"))</f>
         <v>Mooring</v>
       </c>
       <c r="E2" s="38" t="str">
         <f>Moorings!C2</f>
         <v>SN0001</v>
       </c>
-      <c r="F2" s="39" t="str">
-        <f>if(D2="Mooring",Moorings!E2,"")</f>
-        <v>8/9/2014</v>
+      <c r="F2" s="39">
+        <f>IF(D2="Mooring",Moorings!E2,"")</f>
+        <v>41860</v>
       </c>
       <c r="G2" s="36"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" s="35" t="str">
         <f>Moorings!A3</f>
         <v>ATAPL-67977-00002</v>
       </c>
       <c r="B3" s="35" t="str">
-        <f>if(D3="Mooring",Moorings!B3,"")</f>
+        <f>IF(D3="Mooring",Moorings!B3,"")</f>
         <v/>
       </c>
       <c r="C3" s="35" t="str">
-        <f>if(D3="Sensor",Moorings!B3,"")</f>
+        <f>IF(D3="Sensor",Moorings!B3,"")</f>
         <v>RS03AXPD-DP03A-01-CTDPFL304</v>
       </c>
       <c r="D3" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B3),"",if(len(Moorings!B3)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B3),"",IF(LEN(Moorings!B3)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
       <c r="E3" s="40" t="str">
@@ -2214,659 +2799,665 @@
         <v>5277187-0137</v>
       </c>
       <c r="F3" s="39" t="str">
-        <f>if(D3="Mooring",Moorings!E3,"")</f>
+        <f>IF(D3="Mooring",Moorings!E3,"")</f>
         <v/>
       </c>
       <c r="G3" s="36"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" s="35" t="str">
         <f>Moorings!A4</f>
         <v>ATAPL-58346-00002</v>
       </c>
       <c r="B4" s="35" t="str">
-        <f>if(D4="Mooring",Moorings!B4,"")</f>
+        <f>IF(D4="Mooring",Moorings!B4,"")</f>
         <v/>
       </c>
       <c r="C4" s="35" t="str">
-        <f>if(D4="Sensor",Moorings!B4,"")</f>
+        <f>IF(D4="Sensor",Moorings!B4,"")</f>
         <v>RS03AXPD-DP03A-02-VEL3DA303</v>
       </c>
       <c r="D4" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B4),"",if(len(Moorings!B4)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B4),"",IF(LEN(Moorings!B4)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
-      <c r="E4" s="40" t="str">
+      <c r="E4" s="40">
         <f>Moorings!C4</f>
         <v>1130</v>
       </c>
       <c r="F4" s="39" t="str">
-        <f>if(D4="Mooring",Moorings!E4,"")</f>
+        <f>IF(D4="Mooring",Moorings!E4,"")</f>
         <v/>
       </c>
       <c r="G4" s="36"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7">
       <c r="A5" s="35" t="str">
         <f>Moorings!A5</f>
         <v>ATAPL-70111-00002</v>
       </c>
       <c r="B5" s="35" t="str">
-        <f>if(D5="Mooring",Moorings!B5,"")</f>
+        <f>IF(D5="Mooring",Moorings!B5,"")</f>
         <v/>
       </c>
       <c r="C5" s="35" t="str">
-        <f>if(D5="Sensor",Moorings!B5,"")</f>
+        <f>IF(D5="Sensor",Moorings!B5,"")</f>
         <v>RS03AXPD-DP03A-03-FLCDRA302</v>
       </c>
       <c r="D5" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B5),"",if(len(Moorings!B5)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B5),"",IF(LEN(Moorings!B5)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
-      <c r="E5" s="40" t="str">
+      <c r="E5" s="40">
         <f>Moorings!C5</f>
         <v>3399</v>
       </c>
       <c r="F5" s="39" t="str">
-        <f>if(D5="Mooring",Moorings!E5,"")</f>
+        <f>IF(D5="Mooring",Moorings!E5,"")</f>
         <v/>
       </c>
       <c r="G5" s="36"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7">
       <c r="A6" s="35" t="str">
         <f>Moorings!A6</f>
         <v>ATAPL-70110-00002</v>
       </c>
       <c r="B6" s="35" t="str">
-        <f>if(D6="Mooring",Moorings!B6,"")</f>
+        <f>IF(D6="Mooring",Moorings!B6,"")</f>
         <v/>
       </c>
       <c r="C6" s="35" t="str">
-        <f>if(D6="Sensor",Moorings!B6,"")</f>
+        <f>IF(D6="Sensor",Moorings!B6,"")</f>
         <v>RS03AXPD-DP03A-04-FLNTUA302</v>
       </c>
       <c r="D6" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B6),"",if(len(Moorings!B6)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B6),"",IF(LEN(Moorings!B6)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
-      <c r="E6" s="40" t="str">
+      <c r="E6" s="40">
         <f>Moorings!C6</f>
         <v>3397</v>
       </c>
       <c r="F6" s="39" t="str">
-        <f>if(D6="Mooring",Moorings!E6,"")</f>
+        <f>IF(D6="Mooring",Moorings!E6,"")</f>
         <v/>
       </c>
       <c r="G6" s="36"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" s="35" t="str">
         <f>Moorings!A7</f>
         <v>ATAPL-58320-00001</v>
       </c>
       <c r="B7" s="35" t="str">
-        <f>if(D7="Mooring",Moorings!B7,"")</f>
+        <f>IF(D7="Mooring",Moorings!B7,"")</f>
         <v/>
       </c>
       <c r="C7" s="35" t="str">
-        <f>if(D7="Sensor",Moorings!B7,"")</f>
+        <f>IF(D7="Sensor",Moorings!B7,"")</f>
         <v>RS03AXPD-DP03A-06-DOSTAD304</v>
       </c>
       <c r="D7" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B7),"",if(len(Moorings!B7)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B7),"",IF(LEN(Moorings!B7)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
-      <c r="E7" s="40" t="str">
+      <c r="E7" s="40">
         <f>Moorings!C7</f>
         <v>458</v>
       </c>
       <c r="F7" s="39" t="str">
-        <f>if(D7="Mooring",Moorings!E7,"")</f>
+        <f>IF(D7="Mooring",Moorings!E7,"")</f>
         <v/>
       </c>
       <c r="G7" s="36"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="A8" s="35" t="str">
         <f>Moorings!A8</f>
         <v>ATAPL-71553-00005</v>
       </c>
       <c r="B8" s="35" t="str">
-        <f>if(D8="Mooring",Moorings!B8,"")</f>
+        <f>IF(D8="Mooring",Moorings!B8,"")</f>
         <v>RS03AXPD-PD03A</v>
       </c>
       <c r="C8" s="36" t="str">
-        <f>if(D8="Sensor",Moorings!B8,"")</f>
+        <f>IF(D8="Sensor",Moorings!B8,"")</f>
         <v/>
       </c>
       <c r="D8" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B8),"",if(len(Moorings!B8)&gt;14,"Sensor","Mooring"))</f>
+        <f>IF(ISBLANK(Moorings!B8),"",IF(LEN(Moorings!B8)&gt;14,"Sensor","Mooring"))</f>
         <v>Mooring</v>
       </c>
       <c r="E8" s="40" t="str">
         <f>Moorings!C8</f>
         <v>SN0005</v>
       </c>
-      <c r="F8" s="39" t="str">
-        <f>if(D8="Mooring",Moorings!E8,"")</f>
-        <v>8/9/2014</v>
+      <c r="F8" s="39">
+        <f>IF(D8="Mooring",Moorings!E8,"")</f>
+        <v>41860</v>
       </c>
       <c r="G8" s="36"/>
     </row>
-    <row r="9">
-      <c r="A9" s="35" t="str">
+    <row r="9" spans="1:7">
+      <c r="A9" s="35">
         <f>Moorings!A9</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B9" s="35" t="str">
-        <f>if(D9="Mooring",Moorings!B9,"")</f>
+        <f>IF(D9="Mooring",Moorings!B9,"")</f>
         <v/>
       </c>
       <c r="C9" s="36" t="str">
-        <f>if(D9="Sensor",Moorings!B9,"")</f>
+        <f>IF(D9="Sensor",Moorings!B9,"")</f>
         <v/>
       </c>
       <c r="D9" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B9),"",if(len(Moorings!B9)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E9" s="38" t="str">
+        <f>IF(ISBLANK(Moorings!B9),"",IF(LEN(Moorings!B9)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E9" s="38">
         <f>Moorings!C9</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F9" s="39" t="str">
-        <f>if(D9="Mooring",Moorings!E9,"")</f>
+        <f>IF(D9="Mooring",Moorings!E9,"")</f>
         <v/>
       </c>
       <c r="G9" s="36"/>
     </row>
-    <row r="10">
-      <c r="A10" s="35" t="str">
+    <row r="10" spans="1:7">
+      <c r="A10" s="35">
         <f>Moorings!A10</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B10" s="35" t="str">
-        <f>if(D10="Mooring",Moorings!B10,"")</f>
+        <f>IF(D10="Mooring",Moorings!B10,"")</f>
         <v/>
       </c>
       <c r="C10" s="36" t="str">
-        <f>if(D10="Sensor",Moorings!B10,"")</f>
+        <f>IF(D10="Sensor",Moorings!B10,"")</f>
         <v/>
       </c>
       <c r="D10" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B10),"",if(len(Moorings!B10)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E10" s="40" t="str">
+        <f>IF(ISBLANK(Moorings!B10),"",IF(LEN(Moorings!B10)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E10" s="40">
         <f>Moorings!C10</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F10" s="39" t="str">
-        <f>if(D10="Mooring",Moorings!E10,"")</f>
+        <f>IF(D10="Mooring",Moorings!E10,"")</f>
         <v/>
       </c>
       <c r="G10" s="36"/>
     </row>
-    <row r="11">
-      <c r="A11" s="35" t="str">
+    <row r="11" spans="1:7">
+      <c r="A11" s="35">
         <f>Moorings!A11</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B11" s="35" t="str">
-        <f>if(D11="Mooring",Moorings!B11,"")</f>
+        <f>IF(D11="Mooring",Moorings!B11,"")</f>
         <v/>
       </c>
       <c r="C11" s="36" t="str">
-        <f>if(D11="Sensor",Moorings!B11,"")</f>
+        <f>IF(D11="Sensor",Moorings!B11,"")</f>
         <v/>
       </c>
       <c r="D11" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B11),"",if(len(Moorings!B11)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E11" s="40" t="str">
+        <f>IF(ISBLANK(Moorings!B11),"",IF(LEN(Moorings!B11)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E11" s="40">
         <f>Moorings!C11</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F11" s="39" t="str">
-        <f>if(D11="Mooring",Moorings!E11,"")</f>
+        <f>IF(D11="Mooring",Moorings!E11,"")</f>
         <v/>
       </c>
       <c r="G11" s="36"/>
     </row>
-    <row r="12">
-      <c r="A12" s="35" t="str">
+    <row r="12" spans="1:7">
+      <c r="A12" s="35">
         <f>Moorings!A12</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B12" s="35" t="str">
-        <f>if(D12="Mooring",Moorings!B12,"")</f>
+        <f>IF(D12="Mooring",Moorings!B12,"")</f>
         <v/>
       </c>
       <c r="C12" s="36" t="str">
-        <f>if(D12="Sensor",Moorings!B12,"")</f>
+        <f>IF(D12="Sensor",Moorings!B12,"")</f>
         <v/>
       </c>
       <c r="D12" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B12),"",if(len(Moorings!B12)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E12" s="40" t="str">
+        <f>IF(ISBLANK(Moorings!B12),"",IF(LEN(Moorings!B12)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E12" s="40">
         <f>Moorings!C12</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F12" s="39" t="str">
-        <f>if(D12="Mooring",Moorings!E12,"")</f>
+        <f>IF(D12="Mooring",Moorings!E12,"")</f>
         <v/>
       </c>
       <c r="G12" s="36"/>
     </row>
-    <row r="13">
-      <c r="A13" s="35" t="str">
+    <row r="13" spans="1:7">
+      <c r="A13" s="35">
         <f>Moorings!A13</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B13" s="35" t="str">
-        <f>if(D13="Mooring",Moorings!B13,"")</f>
+        <f>IF(D13="Mooring",Moorings!B13,"")</f>
         <v/>
       </c>
       <c r="C13" s="36" t="str">
-        <f>if(D13="Sensor",Moorings!B13,"")</f>
+        <f>IF(D13="Sensor",Moorings!B13,"")</f>
         <v/>
       </c>
       <c r="D13" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B13),"",if(len(Moorings!B13)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E13" s="40" t="str">
+        <f>IF(ISBLANK(Moorings!B13),"",IF(LEN(Moorings!B13)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E13" s="40">
         <f>Moorings!C13</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F13" s="39" t="str">
-        <f>if(D13="Mooring",Moorings!E13,"")</f>
+        <f>IF(D13="Mooring",Moorings!E13,"")</f>
         <v/>
       </c>
       <c r="G13" s="36"/>
     </row>
-    <row r="14">
-      <c r="A14" s="35" t="str">
+    <row r="14" spans="1:7">
+      <c r="A14" s="35">
         <f>Moorings!A14</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B14" s="35" t="str">
-        <f>if(D14="Mooring",Moorings!B14,"")</f>
+        <f>IF(D14="Mooring",Moorings!B14,"")</f>
         <v/>
       </c>
       <c r="C14" s="36" t="str">
-        <f>if(D14="Sensor",Moorings!B14,"")</f>
+        <f>IF(D14="Sensor",Moorings!B14,"")</f>
         <v/>
       </c>
       <c r="D14" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B14),"",if(len(Moorings!B14)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E14" s="40" t="str">
+        <f>IF(ISBLANK(Moorings!B14),"",IF(LEN(Moorings!B14)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E14" s="40">
         <f>Moorings!C14</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F14" s="39" t="str">
-        <f>if(D14="Mooring",Moorings!E14,"")</f>
+        <f>IF(D14="Mooring",Moorings!E14,"")</f>
         <v/>
       </c>
       <c r="G14" s="36"/>
     </row>
-    <row r="15">
-      <c r="A15" s="35" t="str">
+    <row r="15" spans="1:7">
+      <c r="A15" s="35">
         <f>Moorings!A15</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B15" s="35" t="str">
-        <f>if(D15="Mooring",Moorings!B15,"")</f>
+        <f>IF(D15="Mooring",Moorings!B15,"")</f>
         <v/>
       </c>
       <c r="C15" s="36" t="str">
-        <f>if(D15="Sensor",Moorings!B15,"")</f>
+        <f>IF(D15="Sensor",Moorings!B15,"")</f>
         <v/>
       </c>
       <c r="D15" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B15),"",if(len(Moorings!B15)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E15" s="40" t="str">
+        <f>IF(ISBLANK(Moorings!B15),"",IF(LEN(Moorings!B15)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E15" s="40">
         <f>Moorings!C15</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F15" s="39" t="str">
-        <f>if(D15="Mooring",Moorings!E15,"")</f>
+        <f>IF(D15="Mooring",Moorings!E15,"")</f>
         <v/>
       </c>
       <c r="G15" s="36"/>
     </row>
-    <row r="16">
-      <c r="A16" s="35" t="str">
+    <row r="16" spans="1:7">
+      <c r="A16" s="35">
         <f>Moorings!A16</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B16" s="35" t="str">
-        <f>if(D16="Mooring",Moorings!B16,"")</f>
+        <f>IF(D16="Mooring",Moorings!B16,"")</f>
         <v/>
       </c>
       <c r="C16" s="36" t="str">
-        <f>if(D16="Sensor",Moorings!B16,"")</f>
+        <f>IF(D16="Sensor",Moorings!B16,"")</f>
         <v/>
       </c>
       <c r="D16" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B16),"",if(len(Moorings!B16)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E16" s="40" t="str">
+        <f>IF(ISBLANK(Moorings!B16),"",IF(LEN(Moorings!B16)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E16" s="40">
         <f>Moorings!C16</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F16" s="39" t="str">
-        <f>if(D16="Mooring",Moorings!E16,"")</f>
+        <f>IF(D16="Mooring",Moorings!E16,"")</f>
         <v/>
       </c>
       <c r="G16" s="36"/>
     </row>
-    <row r="17">
-      <c r="A17" s="35" t="str">
+    <row r="17" spans="1:7">
+      <c r="A17" s="35">
         <f>Moorings!A17</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B17" s="35" t="str">
-        <f>if(D17="Mooring",Moorings!B17,"")</f>
+        <f>IF(D17="Mooring",Moorings!B17,"")</f>
         <v/>
       </c>
       <c r="C17" s="36" t="str">
-        <f>if(D17="Sensor",Moorings!B17,"")</f>
+        <f>IF(D17="Sensor",Moorings!B17,"")</f>
         <v/>
       </c>
       <c r="D17" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B17),"",if(len(Moorings!B17)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E17" s="40" t="str">
+        <f>IF(ISBLANK(Moorings!B17),"",IF(LEN(Moorings!B17)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E17" s="40">
         <f>Moorings!C17</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F17" s="39" t="str">
-        <f>if(D17="Mooring",Moorings!E17,"")</f>
+        <f>IF(D17="Mooring",Moorings!E17,"")</f>
         <v/>
       </c>
       <c r="G17" s="36"/>
     </row>
-    <row r="18">
-      <c r="A18" s="35" t="str">
+    <row r="18" spans="1:7">
+      <c r="A18" s="35">
         <f>Moorings!A18</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B18" s="35" t="str">
-        <f>if(D18="Mooring",Moorings!B18,"")</f>
+        <f>IF(D18="Mooring",Moorings!B18,"")</f>
         <v/>
       </c>
       <c r="C18" s="36" t="str">
-        <f>if(D18="Sensor",Moorings!B18,"")</f>
+        <f>IF(D18="Sensor",Moorings!B18,"")</f>
         <v/>
       </c>
       <c r="D18" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B18),"",if(len(Moorings!B18)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E18" s="40" t="str">
+        <f>IF(ISBLANK(Moorings!B18),"",IF(LEN(Moorings!B18)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E18" s="40">
         <f>Moorings!C18</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F18" s="39" t="str">
-        <f>if(D18="Mooring",Moorings!E18,"")</f>
+        <f>IF(D18="Mooring",Moorings!E18,"")</f>
         <v/>
       </c>
       <c r="G18" s="36"/>
     </row>
-    <row r="19">
-      <c r="A19" s="35" t="str">
+    <row r="19" spans="1:7">
+      <c r="A19" s="35">
         <f>Moorings!A19</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B19" s="35" t="str">
-        <f>if(D19="Mooring",Moorings!B19,"")</f>
+        <f>IF(D19="Mooring",Moorings!B19,"")</f>
         <v/>
       </c>
       <c r="C19" s="36" t="str">
-        <f>if(D19="Sensor",Moorings!B19,"")</f>
+        <f>IF(D19="Sensor",Moorings!B19,"")</f>
         <v/>
       </c>
       <c r="D19" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B19),"",if(len(Moorings!B19)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E19" s="40" t="str">
+        <f>IF(ISBLANK(Moorings!B19),"",IF(LEN(Moorings!B19)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E19" s="40">
         <f>Moorings!C19</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F19" s="39" t="str">
-        <f>if(D19="Mooring",Moorings!E19,"")</f>
+        <f>IF(D19="Mooring",Moorings!E19,"")</f>
         <v/>
       </c>
       <c r="G19" s="36"/>
     </row>
-    <row r="20">
-      <c r="A20" s="35" t="str">
+    <row r="20" spans="1:7">
+      <c r="A20" s="35">
         <f>Moorings!A20</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B20" s="35" t="str">
-        <f>if(D20="Mooring",Moorings!B20,"")</f>
+        <f>IF(D20="Mooring",Moorings!B20,"")</f>
         <v/>
       </c>
       <c r="C20" s="36" t="str">
-        <f>if(D20="Sensor",Moorings!B20,"")</f>
+        <f>IF(D20="Sensor",Moorings!B20,"")</f>
         <v/>
       </c>
       <c r="D20" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B20),"",if(len(Moorings!B20)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E20" s="40" t="str">
+        <f>IF(ISBLANK(Moorings!B20),"",IF(LEN(Moorings!B20)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E20" s="40">
         <f>Moorings!C20</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F20" s="39" t="str">
-        <f>if(D20="Mooring",Moorings!E20,"")</f>
+        <f>IF(D20="Mooring",Moorings!E20,"")</f>
         <v/>
       </c>
       <c r="G20" s="36"/>
     </row>
-    <row r="21">
-      <c r="A21" s="35" t="str">
+    <row r="21" spans="1:7">
+      <c r="A21" s="35">
         <f>Moorings!A21</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B21" s="35" t="str">
-        <f>if(D21="Mooring",Moorings!B21,"")</f>
+        <f>IF(D21="Mooring",Moorings!B21,"")</f>
         <v/>
       </c>
       <c r="C21" s="36" t="str">
-        <f>if(D21="Sensor",Moorings!B21,"")</f>
+        <f>IF(D21="Sensor",Moorings!B21,"")</f>
         <v/>
       </c>
       <c r="D21" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B21),"",if(len(Moorings!B21)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E21" s="40" t="str">
+        <f>IF(ISBLANK(Moorings!B21),"",IF(LEN(Moorings!B21)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E21" s="40">
         <f>Moorings!C21</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F21" s="39" t="str">
-        <f>if(D21="Mooring",Moorings!E21,"")</f>
+        <f>IF(D21="Mooring",Moorings!E21,"")</f>
         <v/>
       </c>
       <c r="G21" s="36"/>
     </row>
-    <row r="22">
-      <c r="A22" s="35" t="str">
+    <row r="22" spans="1:7">
+      <c r="A22" s="35">
         <f>Moorings!A22</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B22" s="35" t="str">
-        <f>if(D22="Mooring",Moorings!B22,"")</f>
+        <f>IF(D22="Mooring",Moorings!B22,"")</f>
         <v/>
       </c>
       <c r="C22" s="36" t="str">
-        <f>if(D22="Sensor",Moorings!B22,"")</f>
+        <f>IF(D22="Sensor",Moorings!B22,"")</f>
         <v/>
       </c>
       <c r="D22" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B22),"",if(len(Moorings!B22)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E22" s="40" t="str">
+        <f>IF(ISBLANK(Moorings!B22),"",IF(LEN(Moorings!B22)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E22" s="40">
         <f>Moorings!C22</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F22" s="39" t="str">
-        <f>if(D22="Mooring",Moorings!E22,"")</f>
+        <f>IF(D22="Mooring",Moorings!E22,"")</f>
         <v/>
       </c>
       <c r="G22" s="36"/>
     </row>
-    <row r="23">
-      <c r="A23" s="35" t="str">
+    <row r="23" spans="1:7">
+      <c r="A23" s="35">
         <f>Moorings!A23</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B23" s="35" t="str">
-        <f>if(D23="Mooring",Moorings!B23,"")</f>
+        <f>IF(D23="Mooring",Moorings!B23,"")</f>
         <v/>
       </c>
       <c r="C23" s="36" t="str">
-        <f>if(D23="Sensor",Moorings!B23,"")</f>
+        <f>IF(D23="Sensor",Moorings!B23,"")</f>
         <v/>
       </c>
       <c r="D23" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B23),"",if(len(Moorings!B23)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E23" s="40" t="str">
+        <f>IF(ISBLANK(Moorings!B23),"",IF(LEN(Moorings!B23)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E23" s="40">
         <f>Moorings!C23</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F23" s="39" t="str">
-        <f>if(D23="Mooring",Moorings!E23,"")</f>
+        <f>IF(D23="Mooring",Moorings!E23,"")</f>
         <v/>
       </c>
       <c r="G23" s="36"/>
     </row>
-    <row r="24">
-      <c r="A24" s="35" t="str">
+    <row r="24" spans="1:7">
+      <c r="A24" s="35">
         <f>Moorings!A24</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B24" s="35" t="str">
-        <f>if(D24="Mooring",Moorings!B24,"")</f>
+        <f>IF(D24="Mooring",Moorings!B24,"")</f>
         <v/>
       </c>
       <c r="C24" s="36" t="str">
-        <f>if(D24="Sensor",Moorings!B24,"")</f>
+        <f>IF(D24="Sensor",Moorings!B24,"")</f>
         <v/>
       </c>
       <c r="D24" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B24),"",if(len(Moorings!B24)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E24" s="40" t="str">
+        <f>IF(ISBLANK(Moorings!B24),"",IF(LEN(Moorings!B24)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E24" s="40">
         <f>Moorings!C24</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F24" s="39" t="str">
-        <f>if(D24="Mooring",Moorings!E24,"")</f>
+        <f>IF(D24="Mooring",Moorings!E24,"")</f>
         <v/>
       </c>
       <c r="G24" s="36"/>
     </row>
-    <row r="25">
-      <c r="A25" s="35" t="str">
+    <row r="25" spans="1:7">
+      <c r="A25" s="35">
         <f>Moorings!A25</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B25" s="35" t="str">
-        <f>if(D25="Mooring",Moorings!B25,"")</f>
+        <f>IF(D25="Mooring",Moorings!B25,"")</f>
         <v/>
       </c>
       <c r="C25" s="36" t="str">
-        <f>if(D25="Sensor",Moorings!B25,"")</f>
+        <f>IF(D25="Sensor",Moorings!B25,"")</f>
         <v/>
       </c>
       <c r="D25" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B25),"",if(len(Moorings!B25)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E25" s="40" t="str">
+        <f>IF(ISBLANK(Moorings!B25),"",IF(LEN(Moorings!B25)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E25" s="40">
         <f>Moorings!C25</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F25" s="39" t="str">
-        <f>if(D25="Mooring",Moorings!E25,"")</f>
+        <f>IF(D25="Mooring",Moorings!E25,"")</f>
         <v/>
       </c>
       <c r="G25" s="36"/>
     </row>
-    <row r="26">
-      <c r="A26" s="35" t="str">
+    <row r="26" spans="1:7">
+      <c r="A26" s="35">
         <f>Moorings!A26</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B26" s="35" t="str">
-        <f>if(D26="Mooring",Moorings!B26,"")</f>
+        <f>IF(D26="Mooring",Moorings!B26,"")</f>
         <v/>
       </c>
       <c r="C26" s="36" t="str">
-        <f>if(D26="Sensor",Moorings!B26,"")</f>
+        <f>IF(D26="Sensor",Moorings!B26,"")</f>
         <v/>
       </c>
       <c r="D26" s="37" t="str">
-        <f>if(ISBLANK(Moorings!B26),"",if(len(Moorings!B26)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E26" s="40" t="str">
+        <f>IF(ISBLANK(Moorings!B26),"",IF(LEN(Moorings!B26)&gt;14,"Sensor","Mooring"))</f>
+        <v/>
+      </c>
+      <c r="E26" s="40">
         <f>Moorings!C26</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F26" s="39" t="str">
-        <f>if(D26="Mooring",Moorings!E26,"")</f>
+        <f>IF(D26="Mooring",Moorings!E26,"")</f>
         <v/>
       </c>
       <c r="G26" s="36"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.25"/>
-    <col customWidth="1" min="2" max="2" width="10.13"/>
-    <col customWidth="1" min="3" max="3" width="15.88"/>
-    <col customWidth="1" min="4" max="4" width="10.0"/>
-    <col customWidth="1" min="5" max="5" width="9.0"/>
-    <col customWidth="1" min="6" max="6" width="6.13"/>
-    <col customWidth="1" min="7" max="7" width="5.0"/>
-    <col customWidth="1" min="8" max="8" width="14.0"/>
-    <col customWidth="1" min="9" max="9" width="17.0"/>
-    <col customWidth="1" min="10" max="10" width="9.63"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="41" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("sort(unique(Moorings!B:B))"),"Ref Des")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("sort(unique(Moorings!B:B))"),"Ref Des")</f>
         <v>Ref Des</v>
       </c>
       <c r="B1" s="42" t="s">
@@ -2895,7 +3486,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2913,7 +3504,7 @@
       <c r="I2" s="48"/>
       <c r="J2" s="47"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -2933,7 +3524,7 @@
       <c r="I3" s="49"/>
       <c r="J3" s="45"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2953,7 +3544,7 @@
       <c r="I4" s="49"/>
       <c r="J4" s="47"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2973,7 +3564,7 @@
       <c r="I5" s="48"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2993,7 +3584,7 @@
       <c r="I6" s="49"/>
       <c r="J6" s="47"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3013,7 +3604,7 @@
       <c r="I7" s="49"/>
       <c r="J7" s="47"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -3031,7 +3622,7 @@
       <c r="I8" s="48"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11">
       <c r="B9" s="45"/>
       <c r="C9" s="46"/>
       <c r="D9" s="45"/>
@@ -3042,7 +3633,7 @@
       <c r="I9" s="49"/>
       <c r="J9" s="47"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11">
       <c r="B10" s="45"/>
       <c r="C10" s="46"/>
       <c r="D10" s="45"/>
@@ -3053,7 +3644,7 @@
       <c r="I10" s="49"/>
       <c r="J10" s="47"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11">
       <c r="B11" s="45"/>
       <c r="C11" s="50"/>
       <c r="D11" s="47"/>
@@ -3064,7 +3655,7 @@
       <c r="I11" s="48"/>
       <c r="J11" s="47"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11">
       <c r="B12" s="45"/>
       <c r="C12" s="46"/>
       <c r="D12" s="45"/>
@@ -3077,7 +3668,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11">
       <c r="B13" s="45"/>
       <c r="C13" s="50"/>
       <c r="D13" s="45"/>
@@ -3091,7 +3682,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11">
       <c r="B14" s="45"/>
       <c r="C14" s="46"/>
       <c r="D14" s="45"/>
@@ -3105,7 +3696,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11">
       <c r="B15" s="45"/>
       <c r="C15" s="46"/>
       <c r="D15" s="45"/>
@@ -3119,7 +3710,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11">
       <c r="B16" s="45"/>
       <c r="C16" s="46"/>
       <c r="D16" s="45"/>
@@ -3133,7 +3724,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:11">
       <c r="B17" s="45"/>
       <c r="C17" s="46"/>
       <c r="D17" s="45"/>
@@ -3147,7 +3738,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="2:11">
       <c r="B18" s="45"/>
       <c r="C18" s="46"/>
       <c r="D18" s="45"/>
@@ -3161,7 +3752,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="2:11">
       <c r="B19" s="45"/>
       <c r="C19" s="46"/>
       <c r="D19" s="45"/>
@@ -3175,21 +3766,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="2:11">
       <c r="B20" s="53" t="str">
-        <f>concatenate(countif(B2:B19,"yes"),"/",counta(B2:B19))</f>
+        <f>CONCATENATE(COUNTIF(B2:B19,"yes"),"/",COUNTA(B2:B19))</f>
         <v>0/0</v>
       </c>
       <c r="C20" s="53" t="str">
-        <f>concatenate("'",countif(C2:C19,"yes"),"/",counta(C2:C19))</f>
+        <f>CONCATENATE("'",COUNTIF(C2:C19,"yes"),"/",COUNTA(C2:C19))</f>
         <v>'0/7</v>
       </c>
       <c r="D20" s="54" t="str">
-        <f t="shared" ref="D20:E20" si="1">concatenate("'",countif(D2:D19,"1/*")+countif(D2:D19,"2/*")*2,"/",countif(D2:D19,"*/1")+countif(D2:D19,"*/2")*2)</f>
+        <f t="shared" ref="D20:E20" si="0">CONCATENATE("'",COUNTIF(D2:D19,"1/*")+COUNTIF(D2:D19,"2/*")*2,"/",COUNTIF(D2:D19,"*/1")+COUNTIF(D2:D19,"*/2")*2)</f>
         <v>'7/7</v>
       </c>
       <c r="E20" s="54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'5/5</v>
       </c>
       <c r="F20" s="47"/>
@@ -3201,7 +3792,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="2:11">
       <c r="B21" s="47"/>
       <c r="C21" s="46"/>
       <c r="D21" s="45"/>
@@ -3215,7 +3806,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="2:11">
       <c r="B22" s="47"/>
       <c r="C22" s="50"/>
       <c r="D22" s="47"/>
@@ -3229,7 +3820,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="2:11">
       <c r="B23" s="47"/>
       <c r="C23" s="50"/>
       <c r="D23" s="47"/>
@@ -3243,7 +3834,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="2:11">
       <c r="B24" s="47"/>
       <c r="C24" s="50"/>
       <c r="D24" s="47"/>
@@ -3257,7 +3848,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="2:11">
       <c r="B25" s="47"/>
       <c r="C25" s="50"/>
       <c r="D25" s="47"/>
@@ -3272,7 +3863,13 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/deployment/Omaha_Cal_Info_RS03AXPD.xlsx
+++ b/deployment/Omaha_Cal_Info_RS03AXPD.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9260" yWindow="260" windowWidth="25600" windowHeight="14440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="9255" yWindow="255" windowWidth="25605" windowHeight="14445" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="IntegrationEvents" sheetId="3" r:id="rId3"/>
     <sheet name="Verification" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,26 +32,28 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>value seems to indicate a second deployment of these instruments
 	-Dan Mergens</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>RSN equipment list 2014/15 has 00003, old deployment was N00361
 	-Dan Mergens</t>
@@ -63,130 +70,126 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>equipment list says -00005
 	-Dan Mergens</t>
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>equipment list shows 52-0145
 	-Dan Mergens</t>
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>equipment list says -00005
 	-Dan Mergens</t>
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0">
+    <comment ref="F6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>equipment list shows 1214
 	-Dan Mergens</t>
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0">
+    <comment ref="E12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>equipment list says -00005
 	-Dan Mergens</t>
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0">
+    <comment ref="F12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>equipment list shows 3716
 	-Dan Mergens</t>
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0">
+    <comment ref="E15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
-          <t>changed to match the equipment list since we don't have data from this instrument in the system
+          <t>equipment list says -00005
 	-Dan Mergens</t>
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0">
+    <comment ref="F15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
-          <t>equipment list says -00005
+          <t>equipment list shows 3638
 	-Dan Mergens</t>
         </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="0">
+    <comment ref="F24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t>equipment list shows 3638
-	-Dan Mergens</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>equipment list shows 458
 	-Dan Mergens</t>
@@ -203,13 +206,14 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>no data, no names, no plot
 	-Dan Mergens</t>
@@ -221,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="90">
   <si>
     <t>Mooring OOIBARCODE</t>
   </si>
@@ -280,9 +284,6 @@
     <t>Profiler no longer operating due to docking station overcurrent</t>
   </si>
   <si>
-    <t>ATAPL-67977-00002</t>
-  </si>
-  <si>
     <t>RS03AXPD-DP03A-01-CTDPFL304</t>
   </si>
   <si>
@@ -292,31 +293,16 @@
     <t>Profiler not operating due to docking station overcurrent</t>
   </si>
   <si>
-    <t>ATAPL-58346-00002</t>
-  </si>
-  <si>
     <t>RS03AXPD-DP03A-02-VEL3DA303</t>
   </si>
   <si>
-    <t>ATAPL-70111-00002</t>
-  </si>
-  <si>
     <t>RS03AXPD-DP03A-03-FLCDRA302</t>
   </si>
   <si>
-    <t>ATAPL-70110-00002</t>
-  </si>
-  <si>
     <t>RS03AXPD-DP03A-04-FLNTUA302</t>
   </si>
   <si>
-    <t>ATAPL-58320-00001</t>
-  </si>
-  <si>
     <t>RS03AXPD-DP03A-06-DOSTAD304</t>
-  </si>
-  <si>
-    <t>ATAPL-71553-00005</t>
   </si>
   <si>
     <t>RS03AXPD-PD03A</t>
@@ -422,9 +408,6 @@
     <t>[2.72962e-03, 1.14611e-04, 2.21263e-06 ,2.33768e02, -2.94251e-01, -5.33864e01, 4.55129e00]</t>
   </si>
   <si>
-    <t>RS03AXPD-DP03A-05-OPTAAC302 was not deployed.</t>
-  </si>
-  <si>
     <t>OOIBARCODE</t>
   </si>
   <si>
@@ -471,6 +454,48 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>RS03AXPD-DP03A-00-ENG000000</t>
+  </si>
+  <si>
+    <t>RS03AXPD-DP03A-03-FLNTUA302</t>
+  </si>
+  <si>
+    <t>RS03AXPD-DP03A-05-OPTAAC302</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>RS03AXPD-DP03A-ENG-00001</t>
+  </si>
+  <si>
+    <t>OL000579</t>
+  </si>
+  <si>
+    <t>Not operational on initial deployment</t>
+  </si>
+  <si>
+    <t>RS03AXPD-DP03A-05-OPTAAC302 not operational on initial deployment</t>
+  </si>
+  <si>
+    <t>ATAPL-67977-00002</t>
+  </si>
+  <si>
+    <t>ATAPL-58346-00002</t>
+  </si>
+  <si>
+    <t>ATAPL-70111-00002</t>
+  </si>
+  <si>
+    <t>ATAPL-70110-00002</t>
+  </si>
+  <si>
+    <t>ATAPL-58320-00001</t>
+  </si>
+  <si>
+    <t>ATAPL-71553-00005</t>
   </si>
 </sst>
 </file>
@@ -482,7 +507,7 @@
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="m&quot;/&quot;d&quot;/&quot;yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -491,37 +516,50 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF999999"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,18 +592,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD99594"/>
-        <bgColor rgb="FFD99594"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -625,6 +657,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -662,12 +703,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -712,14 +747,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -747,16 +776,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -781,12 +810,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -843,6 +886,145 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12382500" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12382500" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -858,7 +1040,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>3225800</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -896,6 +1078,145 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 10" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 10"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10648950" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 10"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10648950" cy="9505950"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -952,6 +1273,145 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1280,28 +1740,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="6.5" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" customWidth="1"/>
-    <col min="13" max="14" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="14" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27" customHeight="1">
+    <row r="1" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1803,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="13.5" customHeight="1">
+    <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1384,16 +1846,27 @@
         <f t="shared" ref="N2:N8" si="1">((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
         <v>-129.75904</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="P2" t="e">
+        <f t="shared" ref="P2:P8" si="2">MATCH(B2,Q:Q,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:S8" si="3">MATCH(Q2,B:B,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -1418,7 +1891,7 @@
         <v>17</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M3" s="10">
         <f t="shared" si="0"/>
@@ -1428,13 +1901,24 @@
         <f t="shared" si="1"/>
         <v>-129.75904</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
+      <c r="P3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
+        <v>85</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="11">
         <v>1130</v>
@@ -1462,7 +1946,7 @@
         <v>17</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M4" s="10">
         <f t="shared" si="0"/>
@@ -1472,13 +1956,24 @@
         <f t="shared" si="1"/>
         <v>-129.75904</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>25</v>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>86</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="6">
         <v>3399</v>
@@ -1516,13 +2011,24 @@
         <f t="shared" si="1"/>
         <v>-129.75904</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
       </c>
       <c r="C6" s="6">
         <v>3397</v>
@@ -1560,13 +2066,24 @@
         <f t="shared" si="1"/>
         <v>-129.75904</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>29</v>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>88</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C7" s="6">
         <v>458</v>
@@ -1604,16 +2121,27 @@
         <f t="shared" si="1"/>
         <v>-129.75904</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>31</v>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q7" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>89</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -1638,7 +2166,7 @@
         <v>17</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M8" s="10">
         <f t="shared" si="0"/>
@@ -1648,22 +2176,71 @@
         <f t="shared" si="1"/>
         <v>-129.75904</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
+      <c r="P8" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>41860</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.875</v>
+      </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2612</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="17">
+        <v>45.829720000000002</v>
+      </c>
+      <c r="N9" s="17">
+        <v>-129.75904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1679,26 +2256,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
-    <col min="8" max="8" width="63.33203125" customWidth="1"/>
-    <col min="9" max="9" width="72.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1706,994 +2283,1013 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15" t="str">
+      <c r="K1" s="52"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!A:A,Moorings!B:B=left(A2,14),Moorings!D:D=D2))"),"")</f>
         <v/>
       </c>
-      <c r="C2" s="15" t="str">
+      <c r="C2" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!C:C,Moorings!B:B=left(A2,14),Moorings!D:D=D2))"),"")</f>
         <v/>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15" t="str">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!A:A,Moorings!B:B=A2,Moorings!D:D=D2))"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="15" t="str">
+      <c r="F2" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A2),"""",filter(Moorings!C:C,Moorings!B:B=A2,Moorings!D:D=D2))"),"")</f>
         <v/>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="19" t="str">
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!A:A,Moorings!B:B=left(A3,14),Moorings!D:D=D3))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
-      <c r="C3" s="20" t="str">
+      <c r="C3" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!C:C,Moorings!B:B=left(A3,14),Moorings!D:D=D3))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="19">
         <v>1</v>
       </c>
-      <c r="E3" s="19" t="str">
+      <c r="E3" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!A:A,Moorings!B:B=A3,Moorings!D:D=D3))"),"ATAPL-67977-00002")</f>
         <v>ATAPL-67977-00002</v>
       </c>
-      <c r="F3" s="19" t="str">
+      <c r="F3" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A3),"""",filter(Moorings!C:C,Moorings!B:B=A3,Moorings!D:D=D3))"),"5277187-0137")</f>
         <v>5277187-0137</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="22">
+      <c r="G3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="20">
         <v>45.829700000000003</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="19" t="str">
+      <c r="I3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="51"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!A:A,Moorings!B:B=left(A4,14),Moorings!D:D=D4))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
-      <c r="C4" s="20" t="str">
+      <c r="C4" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!C:C,Moorings!B:B=left(A4,14),Moorings!D:D=D4))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="19">
         <v>1</v>
       </c>
-      <c r="E4" s="19" t="str">
+      <c r="E4" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!A:A,Moorings!B:B=A4,Moorings!D:D=D4))"),"ATAPL-67977-00002")</f>
         <v>ATAPL-67977-00002</v>
       </c>
-      <c r="F4" s="19" t="str">
+      <c r="F4" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A4),"""",filter(Moorings!C:C,Moorings!B:B=A4,Moorings!D:D=D4))"),"5277187-0137")</f>
         <v>5277187-0137</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="22">
+      <c r="G4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="20">
         <v>-129.75903166666666</v>
       </c>
-      <c r="I4" s="23"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="15" t="str">
+      <c r="I4" s="21"/>
+      <c r="J4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!A:A,Moorings!B:B=left(A5,14),Moorings!D:D=D5))"),"")</f>
         <v/>
       </c>
-      <c r="C5" s="15" t="str">
+      <c r="C5" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!C:C,Moorings!B:B=left(A5,14),Moorings!D:D=D5))"),"")</f>
         <v/>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="15" t="str">
+      <c r="D5" s="22"/>
+      <c r="E5" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!A:A,Moorings!B:B=A5,Moorings!D:D=D5))"),"")</f>
         <v/>
       </c>
-      <c r="F5" s="15" t="str">
+      <c r="F5" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A5),"""",filter(Moorings!C:C,Moorings!B:B=A5,Moorings!D:D=D5))"),"")</f>
         <v/>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="19" t="str">
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!A:A,Moorings!B:B=left(A6,14),Moorings!D:D=D6))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
-      <c r="C6" s="20" t="str">
+      <c r="C6" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!C:C,Moorings!B:B=left(A6,14),Moorings!D:D=D6))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="19">
         <v>1</v>
       </c>
-      <c r="E6" s="19" t="str">
+      <c r="E6" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!A:A,Moorings!B:B=A6,Moorings!D:D=D6))"),"ATAPL-58346-00002")</f>
         <v>ATAPL-58346-00002</v>
       </c>
-      <c r="F6" s="19" t="str">
+      <c r="F6" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A6),"""",filter(Moorings!C:C,Moorings!B:B=A6,Moorings!D:D=D6))"),"1130")</f>
         <v>1130</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="22">
+      <c r="G6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="20">
         <v>45.829700000000003</v>
       </c>
-      <c r="I6" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="19" t="str">
+      <c r="I6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="51"/>
+    </row>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!A:A,Moorings!B:B=left(A7,14),Moorings!D:D=D7))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
-      <c r="C7" s="20" t="str">
+      <c r="C7" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!C:C,Moorings!B:B=left(A7,14),Moorings!D:D=D7))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>1</v>
       </c>
-      <c r="E7" s="19" t="str">
+      <c r="E7" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!A:A,Moorings!B:B=A7,Moorings!D:D=D7))"),"ATAPL-58346-00002")</f>
         <v>ATAPL-58346-00002</v>
       </c>
-      <c r="F7" s="19" t="str">
+      <c r="F7" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A7),"""",filter(Moorings!C:C,Moorings!B:B=A7,Moorings!D:D=D7))"),"1130")</f>
         <v>1130</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="22">
+      <c r="G7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="20">
         <v>-129.75903166666666</v>
       </c>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="19" t="str">
+      <c r="I7" s="21"/>
+      <c r="J7" s="51"/>
+    </row>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!A:A,Moorings!B:B=left(A8,14),Moorings!D:D=D8))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
-      <c r="C8" s="20" t="str">
+      <c r="C8" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!C:C,Moorings!B:B=left(A8,14),Moorings!D:D=D8))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>1</v>
       </c>
-      <c r="E8" s="19" t="str">
+      <c r="E8" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!A:A,Moorings!B:B=A8,Moorings!D:D=D8))"),"ATAPL-58346-00002")</f>
         <v>ATAPL-58346-00002</v>
       </c>
-      <c r="F8" s="19" t="str">
+      <c r="F8" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A8),"""",filter(Moorings!C:C,Moorings!B:B=A8,Moorings!D:D=D8))"),"1130")</f>
         <v>1130</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="19" t="str">
+      <c r="G8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="51"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!A:A,Moorings!B:B=left(A9,14),Moorings!D:D=D9))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!C:C,Moorings!B:B=left(A9,14),Moorings!D:D=D9))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>1</v>
       </c>
-      <c r="E9" s="19" t="str">
+      <c r="E9" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!A:A,Moorings!B:B=A9,Moorings!D:D=D9))"),"ATAPL-58346-00002")</f>
         <v>ATAPL-58346-00002</v>
       </c>
-      <c r="F9" s="19" t="str">
+      <c r="F9" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A9),"""",filter(Moorings!C:C,Moorings!B:B=A9,Moorings!D:D=D9))"),"1130")</f>
         <v>1130</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="23"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="19" t="str">
+      <c r="G9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="51"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!A:A,Moorings!B:B=left(A10,14),Moorings!D:D=D10))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
-      <c r="C10" s="20" t="str">
+      <c r="C10" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!C:C,Moorings!B:B=left(A10,14),Moorings!D:D=D10))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="19">
         <v>1</v>
       </c>
-      <c r="E10" s="19" t="str">
+      <c r="E10" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!A:A,Moorings!B:B=A10,Moorings!D:D=D10))"),"ATAPL-58346-00002")</f>
         <v>ATAPL-58346-00002</v>
       </c>
-      <c r="F10" s="19" t="str">
+      <c r="F10" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A10),"""",filter(Moorings!C:C,Moorings!B:B=A10,Moorings!D:D=D10))"),"1130")</f>
         <v>1130</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="23"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="15" t="str">
+      <c r="G10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="51"/>
+    </row>
+    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!A:A,Moorings!B:B=left(A11,14),Moorings!D:D=D11))"),"")</f>
         <v/>
       </c>
-      <c r="C11" s="15" t="str">
+      <c r="C11" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!C:C,Moorings!B:B=left(A11,14),Moorings!D:D=D11))"),"")</f>
         <v/>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="15" t="str">
+      <c r="D11" s="22"/>
+      <c r="E11" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!A:A,Moorings!B:B=A11,Moorings!D:D=D11))"),"")</f>
         <v/>
       </c>
-      <c r="F11" s="15" t="str">
+      <c r="F11" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A11),"""",filter(Moorings!C:C,Moorings!B:B=A11,Moorings!D:D=D11))"),"")</f>
         <v/>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="19" t="str">
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!A:A,Moorings!B:B=left(A12,14),Moorings!D:D=D12))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
-      <c r="C12" s="20" t="str">
+      <c r="C12" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!C:C,Moorings!B:B=left(A12,14),Moorings!D:D=D12))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="19">
         <v>1</v>
       </c>
-      <c r="E12" s="19" t="str">
+      <c r="E12" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!A:A,Moorings!B:B=A12,Moorings!D:D=D12))"),"ATAPL-70111-00002")</f>
         <v>ATAPL-70111-00002</v>
       </c>
-      <c r="F12" s="19" t="str">
+      <c r="F12" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A12),"""",filter(Moorings!C:C,Moorings!B:B=A12,Moorings!D:D=D12))"),"3399")</f>
         <v>3399</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="27">
+      <c r="G12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="25">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I12" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="19" t="str">
+      <c r="I12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!A:A,Moorings!B:B=left(A13,14),Moorings!D:D=D13))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
-      <c r="C13" s="20" t="str">
+      <c r="C13" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!C:C,Moorings!B:B=left(A13,14),Moorings!D:D=D13))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="19">
         <v>1</v>
       </c>
-      <c r="E13" s="19" t="str">
+      <c r="E13" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!A:A,Moorings!B:B=A13,Moorings!D:D=D13))"),"ATAPL-70111-00002")</f>
         <v>ATAPL-70111-00002</v>
       </c>
-      <c r="F13" s="19" t="str">
+      <c r="F13" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A13),"""",filter(Moorings!C:C,Moorings!B:B=A13,Moorings!D:D=D13))"),"3399")</f>
         <v>3399</v>
       </c>
-      <c r="G13" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="27">
+      <c r="G13" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="25">
         <v>46</v>
       </c>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="15" t="str">
+      <c r="I13" s="21"/>
+      <c r="J13" s="51"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!A:A,Moorings!B:B=left(A14,14),Moorings!D:D=D14))"),"")</f>
         <v/>
       </c>
-      <c r="C14" s="15" t="str">
+      <c r="C14" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!C:C,Moorings!B:B=left(A14,14),Moorings!D:D=D14))"),"")</f>
         <v/>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="15" t="str">
+      <c r="D14" s="22"/>
+      <c r="E14" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!A:A,Moorings!B:B=A14,Moorings!D:D=D14))"),"")</f>
         <v/>
       </c>
-      <c r="F14" s="15" t="str">
+      <c r="F14" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A14),"""",filter(Moorings!C:C,Moorings!B:B=A14,Moorings!D:D=D14))"),"")</f>
         <v/>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A15" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="19" t="str">
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="51"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!A:A,Moorings!B:B=left(A15,14),Moorings!D:D=D15))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
-      <c r="C15" s="20" t="str">
+      <c r="C15" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!C:C,Moorings!B:B=left(A15,14),Moorings!D:D=D15))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="19">
         <v>1</v>
       </c>
-      <c r="E15" s="19" t="str">
+      <c r="E15" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!A:A,Moorings!B:B=A15,Moorings!D:D=D15))"),"ATAPL-70110-00002")</f>
         <v>ATAPL-70110-00002</v>
       </c>
-      <c r="F15" s="19" t="str">
+      <c r="F15" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A15),"""",filter(Moorings!C:C,Moorings!B:B=A15,Moorings!D:D=D15))"),"3397")</f>
         <v>3397</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="29">
+      <c r="G15" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="26">
         <v>0</v>
       </c>
-      <c r="I15" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A16" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="19" t="str">
+      <c r="I15" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="51"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A16),"""",filter(Moorings!A:A,Moorings!B:B=left(A16,14),Moorings!D:D=D16))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
-      <c r="C16" s="20" t="str">
+      <c r="C16" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A16),"""",filter(Moorings!C:C,Moorings!B:B=left(A16,14),Moorings!D:D=D16))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="19">
         <v>1</v>
       </c>
-      <c r="E16" s="19" t="str">
+      <c r="E16" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A16),"""",filter(Moorings!A:A,Moorings!B:B=A16,Moorings!D:D=D16))"),"ATAPL-70110-00002")</f>
         <v>ATAPL-70110-00002</v>
       </c>
-      <c r="F16" s="19" t="str">
+      <c r="F16" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A16),"""",filter(Moorings!C:C,Moorings!B:B=A16,Moorings!D:D=D16))"),"3397")</f>
         <v>3397</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="29">
+      <c r="G16" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="26">
         <v>0</v>
       </c>
-      <c r="I16" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A17" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="19" t="str">
+      <c r="I16" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="51"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A17),"""",filter(Moorings!A:A,Moorings!B:B=left(A17,14),Moorings!D:D=D17))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
-      <c r="C17" s="20" t="str">
+      <c r="C17" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A17),"""",filter(Moorings!C:C,Moorings!B:B=left(A17,14),Moorings!D:D=D17))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="19">
         <v>1</v>
       </c>
-      <c r="E17" s="19" t="str">
+      <c r="E17" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A17),"""",filter(Moorings!A:A,Moorings!B:B=A17,Moorings!D:D=D17))"),"ATAPL-70110-00002")</f>
         <v>ATAPL-70110-00002</v>
       </c>
-      <c r="F17" s="19" t="str">
+      <c r="F17" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A17),"""",filter(Moorings!C:C,Moorings!B:B=A17,Moorings!D:D=D17))"),"3397")</f>
         <v>3397</v>
       </c>
-      <c r="G17" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="18">
+      <c r="G17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="16">
         <v>1.21E-2</v>
       </c>
-      <c r="I17" s="23"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A18" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="19" t="str">
+      <c r="I17" s="21"/>
+      <c r="J17" s="51"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A18),"""",filter(Moorings!A:A,Moorings!B:B=left(A18,14),Moorings!D:D=D18))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
-      <c r="C18" s="20" t="str">
+      <c r="C18" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A18),"""",filter(Moorings!C:C,Moorings!B:B=left(A18,14),Moorings!D:D=D18))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="19">
         <v>1</v>
       </c>
-      <c r="E18" s="19" t="str">
+      <c r="E18" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A18),"""",filter(Moorings!A:A,Moorings!B:B=A18,Moorings!D:D=D18))"),"ATAPL-70110-00002")</f>
         <v>ATAPL-70110-00002</v>
       </c>
-      <c r="F18" s="19" t="str">
+      <c r="F18" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A18),"""",filter(Moorings!C:C,Moorings!B:B=A18,Moorings!D:D=D18))"),"3397")</f>
         <v>3397</v>
       </c>
-      <c r="G18" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="23">
+      <c r="G18" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="21">
         <v>49</v>
       </c>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A19" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="19" t="str">
+      <c r="I18" s="21"/>
+      <c r="J18" s="51"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A19),"""",filter(Moorings!A:A,Moorings!B:B=left(A19,14),Moorings!D:D=D19))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
-      <c r="C19" s="20" t="str">
+      <c r="C19" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A19),"""",filter(Moorings!C:C,Moorings!B:B=left(A19,14),Moorings!D:D=D19))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="19">
         <v>1</v>
       </c>
-      <c r="E19" s="19" t="str">
+      <c r="E19" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A19),"""",filter(Moorings!A:A,Moorings!B:B=A19,Moorings!D:D=D19))"),"ATAPL-70110-00002")</f>
         <v>ATAPL-70110-00002</v>
       </c>
-      <c r="F19" s="19" t="str">
+      <c r="F19" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A19),"""",filter(Moorings!C:C,Moorings!B:B=A19,Moorings!D:D=D19))"),"3397")</f>
         <v>3397</v>
       </c>
-      <c r="G19" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="23">
+      <c r="G19" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="21">
         <v>140</v>
       </c>
-      <c r="I19" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A20" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="19" t="str">
+      <c r="I19" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="51"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A20),"""",filter(Moorings!A:A,Moorings!B:B=left(A20,14),Moorings!D:D=D20))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
-      <c r="C20" s="20" t="str">
+      <c r="C20" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A20),"""",filter(Moorings!C:C,Moorings!B:B=left(A20,14),Moorings!D:D=D20))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="19">
         <v>1</v>
       </c>
-      <c r="E20" s="19" t="str">
+      <c r="E20" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A20),"""",filter(Moorings!A:A,Moorings!B:B=A20,Moorings!D:D=D20))"),"ATAPL-70110-00002")</f>
         <v>ATAPL-70110-00002</v>
       </c>
-      <c r="F20" s="19" t="str">
+      <c r="F20" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A20),"""",filter(Moorings!C:C,Moorings!B:B=A20,Moorings!D:D=D20))"),"3397")</f>
         <v>3397</v>
       </c>
-      <c r="G20" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="23">
+      <c r="G20" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="21">
         <v>700</v>
       </c>
-      <c r="I20" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A21" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="19" t="str">
+      <c r="I20" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="51"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A21),"""",filter(Moorings!A:A,Moorings!B:B=left(A21,14),Moorings!D:D=D21))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
-      <c r="C21" s="20" t="str">
+      <c r="C21" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A21),"""",filter(Moorings!C:C,Moorings!B:B=left(A21,14),Moorings!D:D=D21))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="19">
         <v>1</v>
       </c>
-      <c r="E21" s="19" t="str">
+      <c r="E21" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A21),"""",filter(Moorings!A:A,Moorings!B:B=A21,Moorings!D:D=D21))"),"ATAPL-70110-00002")</f>
         <v>ATAPL-70110-00002</v>
       </c>
-      <c r="F21" s="19" t="str">
+      <c r="F21" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A21),"""",filter(Moorings!C:C,Moorings!B:B=A21,Moorings!D:D=D21))"),"3397")</f>
         <v>3397</v>
       </c>
-      <c r="G21" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="23">
+      <c r="G21" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="21">
         <v>1.0960000000000001</v>
       </c>
-      <c r="I21" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A22" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="19" t="str">
+      <c r="I21" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="51"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A22),"""",filter(Moorings!A:A,Moorings!B:B=left(A22,14),Moorings!D:D=D22))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
-      <c r="C22" s="20" t="str">
+      <c r="C22" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A22),"""",filter(Moorings!C:C,Moorings!B:B=left(A22,14),Moorings!D:D=D22))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="19">
         <v>1</v>
       </c>
-      <c r="E22" s="19" t="str">
+      <c r="E22" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A22),"""",filter(Moorings!A:A,Moorings!B:B=A22,Moorings!D:D=D22))"),"ATAPL-70110-00002")</f>
         <v>ATAPL-70110-00002</v>
       </c>
-      <c r="F22" s="19" t="str">
+      <c r="F22" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A22),"""",filter(Moorings!C:C,Moorings!B:B=A22,Moorings!D:D=D22))"),"3397")</f>
         <v>3397</v>
       </c>
-      <c r="G22" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="23">
+      <c r="G22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="21">
         <v>3.9E-2</v>
       </c>
-      <c r="I22" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="15" t="str">
+      <c r="I22" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="51"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A23),"""",filter(Moorings!A:A,Moorings!B:B=left(A23,14),Moorings!D:D=D23))"),"")</f>
         <v/>
       </c>
-      <c r="C23" s="15" t="str">
+      <c r="C23" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A23),"""",filter(Moorings!C:C,Moorings!B:B=left(A23,14),Moorings!D:D=D23))"),"")</f>
         <v/>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="15" t="str">
+      <c r="D23" s="19"/>
+      <c r="E23" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A23),"""",filter(Moorings!A:A,Moorings!B:B=A23,Moorings!D:D=D23))"),"")</f>
         <v/>
       </c>
-      <c r="F23" s="15" t="str">
+      <c r="F23" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A23),"""",filter(Moorings!C:C,Moorings!B:B=A23,Moorings!D:D=D23))"),"")</f>
         <v/>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A24" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="19" t="str">
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="51"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A24),"""",filter(Moorings!A:A,Moorings!B:B=left(A24,14),Moorings!D:D=D24))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
-      <c r="C24" s="20" t="str">
+      <c r="C24" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A24),"""",filter(Moorings!C:C,Moorings!B:B=left(A24,14),Moorings!D:D=D24))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="19">
         <v>1</v>
       </c>
-      <c r="E24" s="19" t="str">
+      <c r="E24" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A24),"""",filter(Moorings!A:A,Moorings!B:B=A24,Moorings!D:D=D24))"),"ATAPL-58320-00001")</f>
         <v>ATAPL-58320-00001</v>
       </c>
-      <c r="F24" s="19" t="str">
+      <c r="F24" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A24),"""",filter(Moorings!C:C,Moorings!B:B=A24,Moorings!D:D=D24))"),"458")</f>
         <v>458</v>
       </c>
-      <c r="G24" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="22">
+      <c r="G24" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="20">
         <v>45.829700000000003</v>
       </c>
-      <c r="I24" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A25" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="19" t="str">
+      <c r="I24" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="51"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A25),"""",filter(Moorings!A:A,Moorings!B:B=left(A25,14),Moorings!D:D=D25))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
-      <c r="C25" s="20" t="str">
+      <c r="C25" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A25),"""",filter(Moorings!C:C,Moorings!B:B=left(A25,14),Moorings!D:D=D25))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="19">
         <v>1</v>
       </c>
-      <c r="E25" s="19" t="str">
+      <c r="E25" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A25),"""",filter(Moorings!A:A,Moorings!B:B=A25,Moorings!D:D=D25))"),"ATAPL-58320-00001")</f>
         <v>ATAPL-58320-00001</v>
       </c>
-      <c r="F25" s="19" t="str">
+      <c r="F25" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A25),"""",filter(Moorings!C:C,Moorings!B:B=A25,Moorings!D:D=D25))"),"458")</f>
         <v>458</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="22">
+      <c r="G25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="20">
         <v>-129.75903166666666</v>
       </c>
-      <c r="I25" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A26" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="19" t="str">
+      <c r="I25" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="51"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A26),"""",filter(Moorings!A:A,Moorings!B:B=left(A26,14),Moorings!D:D=D26))"),"ATAPL-71403-00001")</f>
         <v>ATAPL-71403-00001</v>
       </c>
-      <c r="C26" s="20" t="str">
+      <c r="C26" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A26),"""",filter(Moorings!C:C,Moorings!B:B=left(A26,14),Moorings!D:D=D26))"),"SN0001")</f>
         <v>SN0001</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="19">
         <v>1</v>
       </c>
-      <c r="E26" s="19" t="str">
+      <c r="E26" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A26),"""",filter(Moorings!A:A,Moorings!B:B=A26,Moorings!D:D=D26))"),"ATAPL-58320-00001")</f>
         <v>ATAPL-58320-00001</v>
       </c>
-      <c r="F26" s="19" t="str">
+      <c r="F26" s="17" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A26),"""",filter(Moorings!C:C,Moorings!B:B=A26,Moorings!D:D=D26))"),"458")</f>
         <v>458</v>
       </c>
-      <c r="G26" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="23"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="15" t="str">
+      <c r="G26" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="51"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A27),"""",filter(Moorings!A:A,Moorings!B:B=left(A27,14),Moorings!D:D=D27))"),"")</f>
         <v/>
       </c>
-      <c r="C27" s="15" t="str">
+      <c r="C27" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A27),"""",filter(Moorings!C:C,Moorings!B:B=left(A27,14),Moorings!D:D=D27))"),"")</f>
         <v/>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="15" t="str">
+      <c r="D27" s="22"/>
+      <c r="E27" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A27),"""",filter(Moorings!A:A,Moorings!B:B=A27,Moorings!D:D=D27))"),"")</f>
         <v/>
       </c>
-      <c r="F27" s="15" t="str">
+      <c r="F27" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A27),"""",filter(Moorings!C:C,Moorings!B:B=A27,Moorings!D:D=D27))"),"")</f>
         <v/>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="23"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1">
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
-      <c r="B28" s="15" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A28),"""",filter(Moorings!A:A,Moorings!B:B=left(A28,14),Moorings!D:D=D28))"),"")</f>
-        <v/>
-      </c>
-      <c r="C28" s="15" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A28),"""",filter(Moorings!C:C,Moorings!B:B=left(A28,14),Moorings!D:D=D28))"),"")</f>
-        <v/>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="15" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A28),"""",filter(Moorings!A:A,Moorings!B:B=A28,Moorings!D:D=D28))"),"")</f>
-        <v/>
-      </c>
-      <c r="F28" s="15" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A28),"""",filter(Moorings!C:C,Moorings!B:B=A28,Moorings!D:D=D28))"),"")</f>
-        <v/>
-      </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="15" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A29),"""",filter(Moorings!A:A,Moorings!B:B=left(A29,14),Moorings!D:D=D29))"),"")</f>
-        <v/>
-      </c>
-      <c r="C29" s="15" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A29),"""",filter(Moorings!C:C,Moorings!B:B=left(A29,14),Moorings!D:D=D29))"),"")</f>
-        <v/>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="15" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A29),"""",filter(Moorings!A:A,Moorings!B:B=A29,Moorings!D:D=D29))"),"")</f>
-        <v/>
-      </c>
-      <c r="F29" s="15" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A29),"""",filter(Moorings!C:C,Moorings!B:B=A29,Moorings!D:D=D29))"),"")</f>
-        <v/>
-      </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-    </row>
-    <row r="30" spans="1:9" ht="14">
-      <c r="A30" s="31"/>
-      <c r="B30" s="15" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A30),"""",filter(Moorings!A:A,Moorings!B:B=left(A30,14),Moorings!D:D=D30))"),"")</f>
-        <v/>
-      </c>
-      <c r="C30" s="15" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A30),"""",filter(Moorings!C:C,Moorings!B:B=left(A30,14),Moorings!D:D=D30))"),"")</f>
-        <v/>
-      </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="15" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A30),"""",filter(Moorings!A:A,Moorings!B:B=A30,Moorings!D:D=D30))"),"")</f>
-        <v/>
-      </c>
-      <c r="F30" s="15" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A30),"""",filter(Moorings!C:C,Moorings!B:B=A30,Moorings!D:D=D30))"),"")</f>
-        <v/>
-      </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-    </row>
-    <row r="31" spans="1:9" ht="14">
-      <c r="A31" s="31"/>
-      <c r="B31" s="15" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A31),"""",filter(Moorings!A:A,Moorings!B:B=left(A31,14),Moorings!D:D=D31))"),"")</f>
-        <v/>
-      </c>
-      <c r="C31" s="15" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A31),"""",filter(Moorings!C:C,Moorings!B:B=left(A31,14),Moorings!D:D=D31))"),"")</f>
-        <v/>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="15" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A31),"""",filter(Moorings!A:A,Moorings!B:B=A31,Moorings!D:D=D31))"),"")</f>
-        <v/>
-      </c>
-      <c r="F31" s="15" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A31),"""",filter(Moorings!C:C,Moorings!B:B=A31,Moorings!D:D=D31))"),"")</f>
-        <v/>
-      </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-    </row>
-    <row r="32" spans="1:9" ht="14">
-      <c r="A32" s="31"/>
-      <c r="B32" s="15" t="str">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" s="51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="21"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="17" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A26),"""",filter(Moorings!A:A,Moorings!B:B=left(A26,14),Moorings!D:D=D26))"),"ATAPL-71403-00001")</f>
+        <v>ATAPL-71403-00001</v>
+      </c>
+      <c r="C30" s="18" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A26),"""",filter(Moorings!C:C,Moorings!B:B=left(A26,14),Moorings!D:D=D26))"),"SN0001")</f>
+        <v>SN0001</v>
+      </c>
+      <c r="D30" s="19">
+        <v>1</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="51"/>
+    </row>
+    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="51"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A32),"""",filter(Moorings!A:A,Moorings!B:B=left(A32,14),Moorings!D:D=D32))"),"")</f>
         <v/>
       </c>
-      <c r="C32" s="15" t="str">
+      <c r="C34" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A32),"""",filter(Moorings!C:C,Moorings!B:B=left(A32,14),Moorings!D:D=D32))"),"")</f>
         <v/>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="15" t="str">
+      <c r="D34" s="28"/>
+      <c r="E34" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A32),"""",filter(Moorings!A:A,Moorings!B:B=A32,Moorings!D:D=D32))"),"")</f>
         <v/>
       </c>
-      <c r="F32" s="15" t="str">
+      <c r="F34" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A32),"""",filter(Moorings!C:C,Moorings!B:B=A32,Moorings!D:D=D32))"),"")</f>
         <v/>
       </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-    </row>
-    <row r="33" spans="1:9" ht="14">
-      <c r="A33" s="31"/>
-      <c r="B33" s="15" t="str">
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="27"/>
+      <c r="B35" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A33),"""",filter(Moorings!A:A,Moorings!B:B=left(A33,14),Moorings!D:D=D33))"),"")</f>
         <v/>
       </c>
-      <c r="C33" s="15" t="str">
+      <c r="C35" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A33),"""",filter(Moorings!C:C,Moorings!B:B=left(A33,14),Moorings!D:D=D33))"),"")</f>
         <v/>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="15" t="str">
+      <c r="D35" s="28"/>
+      <c r="E35" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A33),"""",filter(Moorings!A:A,Moorings!B:B=A33,Moorings!D:D=D33))"),"")</f>
         <v/>
       </c>
-      <c r="F33" s="15" t="str">
+      <c r="F35" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A33),"""",filter(Moorings!C:C,Moorings!B:B=A33,Moorings!D:D=D33))"),"")</f>
         <v/>
       </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-    </row>
-    <row r="34" spans="1:9" ht="14">
-      <c r="A34" s="31"/>
-      <c r="B34" s="15" t="str">
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="27"/>
+      <c r="B36" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A34),"""",filter(Moorings!A:A,Moorings!B:B=left(A34,14),Moorings!D:D=D34))"),"")</f>
         <v/>
       </c>
-      <c r="C34" s="15" t="str">
+      <c r="C36" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A34),"""",filter(Moorings!C:C,Moorings!B:B=left(A34,14),Moorings!D:D=D34))"),"")</f>
         <v/>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="15" t="str">
+      <c r="D36" s="28"/>
+      <c r="E36" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A34),"""",filter(Moorings!A:A,Moorings!B:B=A34,Moorings!D:D=D34))"),"")</f>
         <v/>
       </c>
-      <c r="F34" s="15" t="str">
+      <c r="F36" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A34),"""",filter(Moorings!C:C,Moorings!B:B=A34,Moorings!D:D=D34))"),"")</f>
         <v/>
       </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-    </row>
-    <row r="35" spans="1:9" ht="14">
-      <c r="A35" s="31"/>
-      <c r="B35" s="15" t="str">
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+      <c r="B37" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A35),"""",filter(Moorings!A:A,Moorings!B:B=left(A35,14),Moorings!D:D=D35))"),"")</f>
         <v/>
       </c>
-      <c r="C35" s="15" t="str">
+      <c r="C37" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A35),"""",filter(Moorings!C:C,Moorings!B:B=left(A35,14),Moorings!D:D=D35))"),"")</f>
         <v/>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="15" t="str">
+      <c r="D37" s="28"/>
+      <c r="E37" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A35),"""",filter(Moorings!A:A,Moorings!B:B=A35,Moorings!D:D=D35))"),"")</f>
         <v/>
       </c>
-      <c r="F35" s="15" t="str">
+      <c r="F37" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(isblank(A35),"""",filter(Moorings!C:C,Moorings!B:B=A35,Moorings!D:D=D35))"),"")</f>
         <v/>
       </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2716,714 +3312,714 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="35" t="str">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="str">
         <f>Moorings!A2</f>
         <v>ATAPL-71403-00001</v>
       </c>
-      <c r="B2" s="35" t="str">
+      <c r="B2" s="31" t="str">
         <f>IF(D2="Mooring",Moorings!B2,"")</f>
         <v>RS03AXPD-DP03A</v>
       </c>
-      <c r="C2" s="36" t="str">
+      <c r="C2" s="32" t="str">
         <f>IF(D2="Sensor",Moorings!B2,"")</f>
         <v/>
       </c>
-      <c r="D2" s="37" t="str">
+      <c r="D2" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B2),"",IF(LEN(Moorings!B2)&gt;14,"Sensor","Mooring"))</f>
         <v>Mooring</v>
       </c>
-      <c r="E2" s="38" t="str">
+      <c r="E2" s="34" t="str">
         <f>Moorings!C2</f>
         <v>SN0001</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="35">
         <f>IF(D2="Mooring",Moorings!E2,"")</f>
         <v>41860</v>
       </c>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="35" t="str">
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="str">
         <f>Moorings!A3</f>
         <v>ATAPL-67977-00002</v>
       </c>
-      <c r="B3" s="35" t="str">
+      <c r="B3" s="31" t="str">
         <f>IF(D3="Mooring",Moorings!B3,"")</f>
         <v/>
       </c>
-      <c r="C3" s="35" t="str">
+      <c r="C3" s="31" t="str">
         <f>IF(D3="Sensor",Moorings!B3,"")</f>
         <v>RS03AXPD-DP03A-01-CTDPFL304</v>
       </c>
-      <c r="D3" s="37" t="str">
+      <c r="D3" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B3),"",IF(LEN(Moorings!B3)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
-      <c r="E3" s="40" t="str">
+      <c r="E3" s="36" t="str">
         <f>Moorings!C3</f>
         <v>5277187-0137</v>
       </c>
-      <c r="F3" s="39" t="str">
+      <c r="F3" s="35" t="str">
         <f>IF(D3="Mooring",Moorings!E3,"")</f>
         <v/>
       </c>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="35" t="str">
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="str">
         <f>Moorings!A4</f>
         <v>ATAPL-58346-00002</v>
       </c>
-      <c r="B4" s="35" t="str">
+      <c r="B4" s="31" t="str">
         <f>IF(D4="Mooring",Moorings!B4,"")</f>
         <v/>
       </c>
-      <c r="C4" s="35" t="str">
+      <c r="C4" s="31" t="str">
         <f>IF(D4="Sensor",Moorings!B4,"")</f>
         <v>RS03AXPD-DP03A-02-VEL3DA303</v>
       </c>
-      <c r="D4" s="37" t="str">
+      <c r="D4" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B4),"",IF(LEN(Moorings!B4)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="36">
         <f>Moorings!C4</f>
         <v>1130</v>
       </c>
-      <c r="F4" s="39" t="str">
+      <c r="F4" s="35" t="str">
         <f>IF(D4="Mooring",Moorings!E4,"")</f>
         <v/>
       </c>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="35" t="str">
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="str">
         <f>Moorings!A5</f>
         <v>ATAPL-70111-00002</v>
       </c>
-      <c r="B5" s="35" t="str">
+      <c r="B5" s="31" t="str">
         <f>IF(D5="Mooring",Moorings!B5,"")</f>
         <v/>
       </c>
-      <c r="C5" s="35" t="str">
+      <c r="C5" s="31" t="str">
         <f>IF(D5="Sensor",Moorings!B5,"")</f>
         <v>RS03AXPD-DP03A-03-FLCDRA302</v>
       </c>
-      <c r="D5" s="37" t="str">
+      <c r="D5" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B5),"",IF(LEN(Moorings!B5)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="36">
         <f>Moorings!C5</f>
         <v>3399</v>
       </c>
-      <c r="F5" s="39" t="str">
+      <c r="F5" s="35" t="str">
         <f>IF(D5="Mooring",Moorings!E5,"")</f>
         <v/>
       </c>
-      <c r="G5" s="36"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="35" t="str">
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="str">
         <f>Moorings!A6</f>
         <v>ATAPL-70110-00002</v>
       </c>
-      <c r="B6" s="35" t="str">
+      <c r="B6" s="31" t="str">
         <f>IF(D6="Mooring",Moorings!B6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="35" t="str">
+      <c r="C6" s="31" t="str">
         <f>IF(D6="Sensor",Moorings!B6,"")</f>
-        <v>RS03AXPD-DP03A-04-FLNTUA302</v>
-      </c>
-      <c r="D6" s="37" t="str">
+        <v>RS03AXPD-DP03A-03-FLNTUA302</v>
+      </c>
+      <c r="D6" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B6),"",IF(LEN(Moorings!B6)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="36">
         <f>Moorings!C6</f>
         <v>3397</v>
       </c>
-      <c r="F6" s="39" t="str">
+      <c r="F6" s="35" t="str">
         <f>IF(D6="Mooring",Moorings!E6,"")</f>
         <v/>
       </c>
-      <c r="G6" s="36"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="35" t="str">
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="str">
         <f>Moorings!A7</f>
         <v>ATAPL-58320-00001</v>
       </c>
-      <c r="B7" s="35" t="str">
+      <c r="B7" s="31" t="str">
         <f>IF(D7="Mooring",Moorings!B7,"")</f>
         <v/>
       </c>
-      <c r="C7" s="35" t="str">
+      <c r="C7" s="31" t="str">
         <f>IF(D7="Sensor",Moorings!B7,"")</f>
         <v>RS03AXPD-DP03A-06-DOSTAD304</v>
       </c>
-      <c r="D7" s="37" t="str">
+      <c r="D7" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B7),"",IF(LEN(Moorings!B7)&gt;14,"Sensor","Mooring"))</f>
         <v>Sensor</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="36">
         <f>Moorings!C7</f>
         <v>458</v>
       </c>
-      <c r="F7" s="39" t="str">
+      <c r="F7" s="35" t="str">
         <f>IF(D7="Mooring",Moorings!E7,"")</f>
         <v/>
       </c>
-      <c r="G7" s="36"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="35" t="str">
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="str">
         <f>Moorings!A8</f>
         <v>ATAPL-71553-00005</v>
       </c>
-      <c r="B8" s="35" t="str">
+      <c r="B8" s="31" t="str">
         <f>IF(D8="Mooring",Moorings!B8,"")</f>
         <v>RS03AXPD-PD03A</v>
       </c>
-      <c r="C8" s="36" t="str">
+      <c r="C8" s="32" t="str">
         <f>IF(D8="Sensor",Moorings!B8,"")</f>
         <v/>
       </c>
-      <c r="D8" s="37" t="str">
+      <c r="D8" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B8),"",IF(LEN(Moorings!B8)&gt;14,"Sensor","Mooring"))</f>
         <v>Mooring</v>
       </c>
-      <c r="E8" s="40" t="str">
+      <c r="E8" s="36" t="str">
         <f>Moorings!C8</f>
         <v>SN0005</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="35">
         <f>IF(D8="Mooring",Moorings!E8,"")</f>
         <v>41860</v>
       </c>
-      <c r="G8" s="36"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="35">
+      <c r="G8" s="32"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="str">
         <f>Moorings!A9</f>
-        <v>0</v>
-      </c>
-      <c r="B9" s="35" t="str">
-        <f>IF(D9="Mooring",Moorings!B9,"")</f>
-        <v/>
-      </c>
-      <c r="C9" s="36" t="str">
-        <f>IF(D9="Sensor",Moorings!B9,"")</f>
-        <v/>
-      </c>
-      <c r="D9" s="37" t="str">
-        <f>IF(ISBLANK(Moorings!B9),"",IF(LEN(Moorings!B9)&gt;14,"Sensor","Mooring"))</f>
-        <v/>
-      </c>
-      <c r="E9" s="38">
+        <v>OL000579</v>
+      </c>
+      <c r="B9" s="31" t="e">
+        <f>IF(D9="Mooring",Moorings!#REF!,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C9" s="32" t="e">
+        <f>IF(D9="Sensor",Moorings!#REF!,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D9" s="33" t="e">
+        <f>IF(ISBLANK(Moorings!#REF!),"",IF(LEN(Moorings!#REF!)&gt;14,"Sensor","Mooring"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="34" t="str">
         <f>Moorings!C9</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="39" t="str">
+        <v>RS03AXPD-DP03A-ENG-00001</v>
+      </c>
+      <c r="F9" s="35" t="e">
         <f>IF(D9="Mooring",Moorings!E9,"")</f>
-        <v/>
-      </c>
-      <c r="G9" s="36"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="35">
+        <v>#REF!</v>
+      </c>
+      <c r="G9" s="32"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
         <f>Moorings!A10</f>
         <v>0</v>
       </c>
-      <c r="B10" s="35" t="str">
+      <c r="B10" s="31" t="str">
         <f>IF(D10="Mooring",Moorings!B10,"")</f>
         <v/>
       </c>
-      <c r="C10" s="36" t="str">
+      <c r="C10" s="32" t="str">
         <f>IF(D10="Sensor",Moorings!B10,"")</f>
         <v/>
       </c>
-      <c r="D10" s="37" t="str">
+      <c r="D10" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B10),"",IF(LEN(Moorings!B10)&gt;14,"Sensor","Mooring"))</f>
         <v/>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="36">
         <f>Moorings!C10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="39" t="str">
+      <c r="F10" s="35" t="str">
         <f>IF(D10="Mooring",Moorings!E10,"")</f>
         <v/>
       </c>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="35">
+      <c r="G10" s="32"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
         <f>Moorings!A11</f>
         <v>0</v>
       </c>
-      <c r="B11" s="35" t="str">
+      <c r="B11" s="31" t="str">
         <f>IF(D11="Mooring",Moorings!B11,"")</f>
         <v/>
       </c>
-      <c r="C11" s="36" t="str">
+      <c r="C11" s="32" t="str">
         <f>IF(D11="Sensor",Moorings!B11,"")</f>
         <v/>
       </c>
-      <c r="D11" s="37" t="str">
+      <c r="D11" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B11),"",IF(LEN(Moorings!B11)&gt;14,"Sensor","Mooring"))</f>
         <v/>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="36">
         <f>Moorings!C11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="39" t="str">
+      <c r="F11" s="35" t="str">
         <f>IF(D11="Mooring",Moorings!E11,"")</f>
         <v/>
       </c>
-      <c r="G11" s="36"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="35">
+      <c r="G11" s="32"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
         <f>Moorings!A12</f>
         <v>0</v>
       </c>
-      <c r="B12" s="35" t="str">
+      <c r="B12" s="31" t="str">
         <f>IF(D12="Mooring",Moorings!B12,"")</f>
         <v/>
       </c>
-      <c r="C12" s="36" t="str">
+      <c r="C12" s="32" t="str">
         <f>IF(D12="Sensor",Moorings!B12,"")</f>
         <v/>
       </c>
-      <c r="D12" s="37" t="str">
+      <c r="D12" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B12),"",IF(LEN(Moorings!B12)&gt;14,"Sensor","Mooring"))</f>
         <v/>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="36">
         <f>Moorings!C12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="39" t="str">
+      <c r="F12" s="35" t="str">
         <f>IF(D12="Mooring",Moorings!E12,"")</f>
         <v/>
       </c>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="35">
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
         <f>Moorings!A13</f>
         <v>0</v>
       </c>
-      <c r="B13" s="35" t="str">
+      <c r="B13" s="31" t="str">
         <f>IF(D13="Mooring",Moorings!B13,"")</f>
         <v/>
       </c>
-      <c r="C13" s="36" t="str">
+      <c r="C13" s="32" t="str">
         <f>IF(D13="Sensor",Moorings!B13,"")</f>
         <v/>
       </c>
-      <c r="D13" s="37" t="str">
+      <c r="D13" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B13),"",IF(LEN(Moorings!B13)&gt;14,"Sensor","Mooring"))</f>
         <v/>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="36">
         <f>Moorings!C13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="39" t="str">
+      <c r="F13" s="35" t="str">
         <f>IF(D13="Mooring",Moorings!E13,"")</f>
         <v/>
       </c>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="35">
+      <c r="G13" s="32"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
         <f>Moorings!A14</f>
         <v>0</v>
       </c>
-      <c r="B14" s="35" t="str">
+      <c r="B14" s="31" t="str">
         <f>IF(D14="Mooring",Moorings!B14,"")</f>
         <v/>
       </c>
-      <c r="C14" s="36" t="str">
+      <c r="C14" s="32" t="str">
         <f>IF(D14="Sensor",Moorings!B14,"")</f>
         <v/>
       </c>
-      <c r="D14" s="37" t="str">
+      <c r="D14" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B14),"",IF(LEN(Moorings!B14)&gt;14,"Sensor","Mooring"))</f>
         <v/>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="36">
         <f>Moorings!C14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="39" t="str">
+      <c r="F14" s="35" t="str">
         <f>IF(D14="Mooring",Moorings!E14,"")</f>
         <v/>
       </c>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="35">
-        <f>Moorings!A15</f>
-        <v>0</v>
-      </c>
-      <c r="B15" s="35" t="str">
+      <c r="G14" s="32"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="str">
+        <f>Moorings!B9</f>
+        <v>RS03AXPD-DP03A-00-ENG000000</v>
+      </c>
+      <c r="B15" s="31" t="str">
         <f>IF(D15="Mooring",Moorings!B15,"")</f>
         <v/>
       </c>
-      <c r="C15" s="36" t="str">
+      <c r="C15" s="32" t="str">
         <f>IF(D15="Sensor",Moorings!B15,"")</f>
         <v/>
       </c>
-      <c r="D15" s="37" t="str">
+      <c r="D15" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B15),"",IF(LEN(Moorings!B15)&gt;14,"Sensor","Mooring"))</f>
         <v/>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="36">
         <f>Moorings!C15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="39" t="str">
+      <c r="F15" s="35" t="str">
         <f>IF(D15="Mooring",Moorings!E15,"")</f>
         <v/>
       </c>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="35">
+      <c r="G15" s="32"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
         <f>Moorings!A16</f>
         <v>0</v>
       </c>
-      <c r="B16" s="35" t="str">
+      <c r="B16" s="31" t="str">
         <f>IF(D16="Mooring",Moorings!B16,"")</f>
         <v/>
       </c>
-      <c r="C16" s="36" t="str">
+      <c r="C16" s="32" t="str">
         <f>IF(D16="Sensor",Moorings!B16,"")</f>
         <v/>
       </c>
-      <c r="D16" s="37" t="str">
+      <c r="D16" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B16),"",IF(LEN(Moorings!B16)&gt;14,"Sensor","Mooring"))</f>
         <v/>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="36">
         <f>Moorings!C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="39" t="str">
+      <c r="F16" s="35" t="str">
         <f>IF(D16="Mooring",Moorings!E16,"")</f>
         <v/>
       </c>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="35">
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
         <f>Moorings!A17</f>
         <v>0</v>
       </c>
-      <c r="B17" s="35" t="str">
+      <c r="B17" s="31" t="str">
         <f>IF(D17="Mooring",Moorings!B17,"")</f>
         <v/>
       </c>
-      <c r="C17" s="36" t="str">
+      <c r="C17" s="32" t="str">
         <f>IF(D17="Sensor",Moorings!B17,"")</f>
         <v/>
       </c>
-      <c r="D17" s="37" t="str">
+      <c r="D17" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B17),"",IF(LEN(Moorings!B17)&gt;14,"Sensor","Mooring"))</f>
         <v/>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="36">
         <f>Moorings!C17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="39" t="str">
+      <c r="F17" s="35" t="str">
         <f>IF(D17="Mooring",Moorings!E17,"")</f>
         <v/>
       </c>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="35">
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
         <f>Moorings!A18</f>
         <v>0</v>
       </c>
-      <c r="B18" s="35" t="str">
+      <c r="B18" s="31" t="str">
         <f>IF(D18="Mooring",Moorings!B18,"")</f>
         <v/>
       </c>
-      <c r="C18" s="36" t="str">
+      <c r="C18" s="32" t="str">
         <f>IF(D18="Sensor",Moorings!B18,"")</f>
         <v/>
       </c>
-      <c r="D18" s="37" t="str">
+      <c r="D18" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B18),"",IF(LEN(Moorings!B18)&gt;14,"Sensor","Mooring"))</f>
         <v/>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="36">
         <f>Moorings!C18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="39" t="str">
+      <c r="F18" s="35" t="str">
         <f>IF(D18="Mooring",Moorings!E18,"")</f>
         <v/>
       </c>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="35">
+      <c r="G18" s="32"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
         <f>Moorings!A19</f>
         <v>0</v>
       </c>
-      <c r="B19" s="35" t="str">
+      <c r="B19" s="31" t="str">
         <f>IF(D19="Mooring",Moorings!B19,"")</f>
         <v/>
       </c>
-      <c r="C19" s="36" t="str">
+      <c r="C19" s="32" t="str">
         <f>IF(D19="Sensor",Moorings!B19,"")</f>
         <v/>
       </c>
-      <c r="D19" s="37" t="str">
+      <c r="D19" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B19),"",IF(LEN(Moorings!B19)&gt;14,"Sensor","Mooring"))</f>
         <v/>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="36">
         <f>Moorings!C19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="39" t="str">
+      <c r="F19" s="35" t="str">
         <f>IF(D19="Mooring",Moorings!E19,"")</f>
         <v/>
       </c>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="35">
+      <c r="G19" s="32"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
         <f>Moorings!A20</f>
         <v>0</v>
       </c>
-      <c r="B20" s="35" t="str">
+      <c r="B20" s="31" t="str">
         <f>IF(D20="Mooring",Moorings!B20,"")</f>
         <v/>
       </c>
-      <c r="C20" s="36" t="str">
+      <c r="C20" s="32" t="str">
         <f>IF(D20="Sensor",Moorings!B20,"")</f>
         <v/>
       </c>
-      <c r="D20" s="37" t="str">
+      <c r="D20" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B20),"",IF(LEN(Moorings!B20)&gt;14,"Sensor","Mooring"))</f>
         <v/>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="36">
         <f>Moorings!C20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="39" t="str">
+      <c r="F20" s="35" t="str">
         <f>IF(D20="Mooring",Moorings!E20,"")</f>
         <v/>
       </c>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="35">
+      <c r="G20" s="32"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
         <f>Moorings!A21</f>
         <v>0</v>
       </c>
-      <c r="B21" s="35" t="str">
+      <c r="B21" s="31" t="str">
         <f>IF(D21="Mooring",Moorings!B21,"")</f>
         <v/>
       </c>
-      <c r="C21" s="36" t="str">
+      <c r="C21" s="32" t="str">
         <f>IF(D21="Sensor",Moorings!B21,"")</f>
         <v/>
       </c>
-      <c r="D21" s="37" t="str">
+      <c r="D21" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B21),"",IF(LEN(Moorings!B21)&gt;14,"Sensor","Mooring"))</f>
         <v/>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="36">
         <f>Moorings!C21</f>
         <v>0</v>
       </c>
-      <c r="F21" s="39" t="str">
+      <c r="F21" s="35" t="str">
         <f>IF(D21="Mooring",Moorings!E21,"")</f>
         <v/>
       </c>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="35">
+      <c r="G21" s="32"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
         <f>Moorings!A22</f>
         <v>0</v>
       </c>
-      <c r="B22" s="35" t="str">
+      <c r="B22" s="31" t="str">
         <f>IF(D22="Mooring",Moorings!B22,"")</f>
         <v/>
       </c>
-      <c r="C22" s="36" t="str">
+      <c r="C22" s="32" t="str">
         <f>IF(D22="Sensor",Moorings!B22,"")</f>
         <v/>
       </c>
-      <c r="D22" s="37" t="str">
+      <c r="D22" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B22),"",IF(LEN(Moorings!B22)&gt;14,"Sensor","Mooring"))</f>
         <v/>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="36">
         <f>Moorings!C22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="39" t="str">
+      <c r="F22" s="35" t="str">
         <f>IF(D22="Mooring",Moorings!E22,"")</f>
         <v/>
       </c>
-      <c r="G22" s="36"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="35">
+      <c r="G22" s="32"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
         <f>Moorings!A23</f>
         <v>0</v>
       </c>
-      <c r="B23" s="35" t="str">
+      <c r="B23" s="31" t="str">
         <f>IF(D23="Mooring",Moorings!B23,"")</f>
         <v/>
       </c>
-      <c r="C23" s="36" t="str">
+      <c r="C23" s="32" t="str">
         <f>IF(D23="Sensor",Moorings!B23,"")</f>
         <v/>
       </c>
-      <c r="D23" s="37" t="str">
+      <c r="D23" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B23),"",IF(LEN(Moorings!B23)&gt;14,"Sensor","Mooring"))</f>
         <v/>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="36">
         <f>Moorings!C23</f>
         <v>0</v>
       </c>
-      <c r="F23" s="39" t="str">
+      <c r="F23" s="35" t="str">
         <f>IF(D23="Mooring",Moorings!E23,"")</f>
         <v/>
       </c>
-      <c r="G23" s="36"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="35">
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
         <f>Moorings!A24</f>
         <v>0</v>
       </c>
-      <c r="B24" s="35" t="str">
+      <c r="B24" s="31" t="str">
         <f>IF(D24="Mooring",Moorings!B24,"")</f>
         <v/>
       </c>
-      <c r="C24" s="36" t="str">
+      <c r="C24" s="32" t="str">
         <f>IF(D24="Sensor",Moorings!B24,"")</f>
         <v/>
       </c>
-      <c r="D24" s="37" t="str">
+      <c r="D24" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B24),"",IF(LEN(Moorings!B24)&gt;14,"Sensor","Mooring"))</f>
         <v/>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="36">
         <f>Moorings!C24</f>
         <v>0</v>
       </c>
-      <c r="F24" s="39" t="str">
+      <c r="F24" s="35" t="str">
         <f>IF(D24="Mooring",Moorings!E24,"")</f>
         <v/>
       </c>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="35">
+      <c r="G24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
         <f>Moorings!A25</f>
         <v>0</v>
       </c>
-      <c r="B25" s="35" t="str">
+      <c r="B25" s="31" t="str">
         <f>IF(D25="Mooring",Moorings!B25,"")</f>
         <v/>
       </c>
-      <c r="C25" s="36" t="str">
+      <c r="C25" s="32" t="str">
         <f>IF(D25="Sensor",Moorings!B25,"")</f>
         <v/>
       </c>
-      <c r="D25" s="37" t="str">
+      <c r="D25" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B25),"",IF(LEN(Moorings!B25)&gt;14,"Sensor","Mooring"))</f>
         <v/>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="36">
         <f>Moorings!C25</f>
         <v>0</v>
       </c>
-      <c r="F25" s="39" t="str">
+      <c r="F25" s="35" t="str">
         <f>IF(D25="Mooring",Moorings!E25,"")</f>
         <v/>
       </c>
-      <c r="G25" s="36"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="35">
+      <c r="G25" s="32"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
         <f>Moorings!A26</f>
         <v>0</v>
       </c>
-      <c r="B26" s="35" t="str">
+      <c r="B26" s="31" t="str">
         <f>IF(D26="Mooring",Moorings!B26,"")</f>
         <v/>
       </c>
-      <c r="C26" s="36" t="str">
+      <c r="C26" s="32" t="str">
         <f>IF(D26="Sensor",Moorings!B26,"")</f>
         <v/>
       </c>
-      <c r="D26" s="37" t="str">
+      <c r="D26" s="33" t="str">
         <f>IF(ISBLANK(Moorings!B26),"",IF(LEN(Moorings!B26)&gt;14,"Sensor","Mooring"))</f>
         <v/>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="36">
         <f>Moorings!C26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="39" t="str">
+      <c r="F26" s="35" t="str">
         <f>IF(D26="Mooring",Moorings!E26,"")</f>
         <v/>
       </c>
-      <c r="G26" s="36"/>
+      <c r="G26" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3441,425 +4037,425 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="41" t="str">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("sort(unique(Moorings!B:B))"),"Ref Des")</f>
         <v>Ref Des</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="B1" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="47"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="B2" s="41"/>
+      <c r="C2" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="45"/>
-    </row>
-    <row r="4" spans="1:11">
+        <v>19</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="41"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="43"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="43"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="47"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="43"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="43"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="47"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="47"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="47"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="47"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="47"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" s="45"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="47"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="B13" s="45"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="53" t="str">
+      <c r="B8" s="41"/>
+      <c r="C8" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="43"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="43"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="43"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="41"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="43"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="41"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="49" t="str">
         <f>CONCATENATE(COUNTIF(B2:B19,"yes"),"/",COUNTA(B2:B19))</f>
         <v>0/0</v>
       </c>
-      <c r="C20" s="53" t="str">
+      <c r="C20" s="49" t="str">
         <f>CONCATENATE("'",COUNTIF(C2:C19,"yes"),"/",COUNTA(C2:C19))</f>
         <v>'0/7</v>
       </c>
-      <c r="D20" s="54" t="str">
+      <c r="D20" s="50" t="str">
         <f t="shared" ref="D20:E20" si="0">CONCATENATE("'",COUNTIF(D2:D19,"1/*")+COUNTIF(D2:D19,"2/*")*2,"/",COUNTIF(D2:D19,"*/1")+COUNTIF(D2:D19,"*/2")*2)</f>
         <v>'7/7</v>
       </c>
-      <c r="E20" s="54" t="str">
+      <c r="E20" s="50" t="str">
         <f t="shared" si="0"/>
         <v>'5/5</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="47"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="47"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="47"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="47"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="47"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="52" t="s">
-        <v>82</v>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="43"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="43"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="43"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="43"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="43"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="48" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
